--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Projet programmation\Chat Application\Chat-Application\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Projet programmation\Chat Application\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Personne</t>
   </si>
@@ -56,9 +56,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>Lucas</t>
   </si>
   <si>
@@ -96,6 +93,42 @@
   </si>
   <si>
     <t>60min</t>
+  </si>
+  <si>
+    <t>Terminé les uses cases avec Astah</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>Début des maquettes</t>
+  </si>
+  <si>
+    <t>90min</t>
+  </si>
+  <si>
+    <t>Fin des maquettes</t>
+  </si>
+  <si>
+    <t>75min</t>
+  </si>
+  <si>
+    <t>Planification des rendus hebdomadaires avec M. Benzonana</t>
+  </si>
+  <si>
+    <t>45min</t>
+  </si>
+  <si>
+    <t>Scenarii</t>
+  </si>
+  <si>
+    <t>Il manque les scenarii concernant les administrateurs des conversations et les cas ou l'on supprime toutes les personnes de la converstation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarification concernant l'algorithme de recherche apportée. Il faut que je pense à implémenter des fonctions "ouvertes" qui pourront accepter de nouvelles fonctionalités facilement. Il faut que je pense au plus de cas critiques éventuels avant d'implémenter une fonction. </t>
+  </si>
+  <si>
+    <t>Manque les maquettes concernant les administrateurs des conversations. Pour la création d'une discussion reste à modifier la maquette pour obliger la saisie d'un nom de discussion.</t>
   </si>
 </sst>
 </file>
@@ -688,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -710,7 +743,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
@@ -750,19 +783,19 @@
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4">
         <v>43132</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="E5" s="35" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>15</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="37"/>
@@ -775,13 +808,13 @@
         <v>43132</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="29" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>18</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="31"/>
@@ -794,10 +827,10 @@
         <v>43133</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>20</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>9</v>
@@ -813,29 +846,29 @@
         <v>43133</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>23</v>
-      </c>
       <c r="E8" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
+      <c r="B9" s="5">
+        <v>43136</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>9</v>
@@ -847,14 +880,14 @@
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
+      <c r="B10" s="5">
+        <v>43137</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>9</v>
@@ -862,21 +895,21 @@
       <c r="F10" s="30"/>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
+      <c r="B11" s="5">
+        <v>43139</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="31"/>
@@ -888,14 +921,14 @@
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
+      <c r="B12" s="5">
+        <v>43139</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>9</v>
@@ -903,37 +936,41 @@
       <c r="F12" s="30"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
+      <c r="B13" s="5">
+        <v>43139</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
+      <c r="B14" s="5">
+        <v>43139</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="29"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
     </row>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Personne</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>Manque les maquettes concernant les administrateurs des conversations. Pour la création d'une discussion reste à modifier la maquette pour obliger la saisie d'un nom de discussion.</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>Je pense avoir mis tous les éléments nécessaires au bon fonctionnement de ma BD, mais est-ce le cas ?</t>
+  </si>
+  <si>
+    <t>MLD</t>
+  </si>
+  <si>
+    <t>Il y a une "incohérence" dans mes modèles: il faut que je trouve une meilleure facon de gérer les discussions (messages, membres)</t>
   </si>
 </sst>
 </file>
@@ -721,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -974,23 +986,37 @@
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="29"/>
+      <c r="B15" s="5">
+        <v>43139</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="29"/>
+      <c r="B16" s="5">
+        <v>43140</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="F16" s="30"/>
       <c r="G16" s="31"/>
     </row>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Projet programmation\Chat Application\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Projet programmation\Chat\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Personne</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>Il y a une "incohérence" dans mes modèles: il faut que je trouve une meilleure facon de gérer les discussions (messages, membres)</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Front end</t>
+  </si>
+  <si>
+    <t>Page de connexion et 1ere page d'enregistrement</t>
   </si>
 </sst>
 </file>
@@ -733,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1022,19 +1031,35 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="5">
+        <v>43143</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>39</v>
+      </c>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="5">
+        <v>43143</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>41</v>
+      </c>
       <c r="F18" s="30"/>
       <c r="G18" s="31"/>
     </row>
@@ -1390,16 +1415,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1412,28 +1449,16 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Personne</t>
   </si>
@@ -150,6 +150,21 @@
   </si>
   <si>
     <t>Page de connexion et 1ere page d'enregistrement</t>
+  </si>
+  <si>
+    <t>MLD/MCD</t>
+  </si>
+  <si>
+    <t>20min</t>
+  </si>
+  <si>
+    <t>Corrections</t>
+  </si>
+  <si>
+    <t>70min</t>
+  </si>
+  <si>
+    <t>Moitié front end fait</t>
   </si>
 </sst>
 </file>
@@ -743,7 +758,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E20" sqref="E20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1065,19 +1080,35 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="5">
+        <v>43144</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>44</v>
+      </c>
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="5">
+        <v>43144</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="F20" s="30"/>
       <c r="G20" s="31"/>
     </row>
@@ -1415,16 +1446,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
@@ -1437,28 +1480,16 @@
     <mergeCell ref="E32:G32"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>Personne</t>
   </si>
@@ -165,6 +165,21 @@
   </si>
   <si>
     <t>Moitié front end fait</t>
+  </si>
+  <si>
+    <t>terminé</t>
+  </si>
+  <si>
+    <t>Revu MLD prof</t>
+  </si>
+  <si>
+    <t>Modifications à apporter et réflechir sur "répondre à un user précis dans un groupe"</t>
+  </si>
+  <si>
+    <t>Documentation projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagramme de classe </t>
   </si>
 </sst>
 </file>
@@ -758,7 +773,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:G20"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1114,46 +1129,80 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="5">
+        <v>43146</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>47</v>
+      </c>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="23"/>
+      <c r="B22" s="5">
+        <v>43146</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="E22" s="29"/>
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="5">
+        <v>43146</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="E23" s="29"/>
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="5">
+        <v>43146</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="E24" s="29"/>
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="29"/>
+      <c r="B25" s="5">
+        <v>43146</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
     </row>
@@ -1329,22 +1378,22 @@
       <c r="G44" s="31"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="31"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
@@ -1427,35 +1476,39 @@
       <c r="F55" s="28"/>
       <c r="G55" s="28"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
+    <row r="1048575" spans="1:1 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A1048575" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A1048576" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="XFD1048576" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+  <mergeCells count="43">
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1468,28 +1521,16 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>Personne</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t xml:space="preserve">Diagramme de classe </t>
+  </si>
+  <si>
+    <t>Création BD implémentation de données de test</t>
+  </si>
+  <si>
+    <t>80min</t>
   </si>
 </sst>
 </file>
@@ -772,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1206,11 +1212,17 @@
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="5">
+        <v>43157</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="E26" s="29"/>
       <c r="F26" s="30"/>
       <c r="G26" s="31"/>
@@ -1488,27 +1500,16 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1521,16 +1522,27 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>Personne</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>80min</t>
+  </si>
+  <si>
+    <t>Implémentation des classes sous visual studio</t>
+  </si>
+  <si>
+    <t>Connexion à la BD + méthode pour vérifier si le pseudo rentré est déjà existant</t>
+  </si>
+  <si>
+    <t>Réflexion sur les classes enfants de user</t>
+  </si>
+  <si>
+    <t>10min</t>
   </si>
 </sst>
 </file>
@@ -383,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -495,6 +507,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,7 +794,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:G26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1227,29 +1242,43 @@
       <c r="F26" s="30"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="23"/>
+      <c r="B27" s="5">
+        <v>43158</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="E27" s="29"/>
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="E28" s="29"/>
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="E29" s="29"/>
       <c r="F29" s="30"/>
       <c r="G29" s="31"/>
@@ -1390,7 +1419,7 @@
       <c r="G44" s="31"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="7"/>
       <c r="C45" s="18"/>
       <c r="D45" s="24"/>
@@ -1399,7 +1428,7 @@
       <c r="G45" s="27"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="8"/>
       <c r="C46" s="19"/>
       <c r="D46" s="25"/>
@@ -1488,28 +1517,40 @@
       <c r="F55" s="28"/>
       <c r="G55" s="28"/>
     </row>
-    <row r="1048575" spans="1:1 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A1048575" s="9" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A1048576" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048576" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1522,27 +1563,16 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Projet programmation\Chat\Documentation\Planification_JournalDeTravail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-45" windowWidth="28920" windowHeight="16425" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>Personne</t>
   </si>
@@ -198,12 +198,30 @@
   </si>
   <si>
     <t>10min</t>
+  </si>
+  <si>
+    <t>MAISON</t>
+  </si>
+  <si>
+    <t>Implémentation de l'enregistrement</t>
+  </si>
+  <si>
+    <t>Vérification que les pseudo/mdp rentrés par l'utilisateur respectent la norme</t>
+  </si>
+  <si>
+    <t>Implémentation de l'enregistrement suite</t>
+  </si>
+  <si>
+    <t>140min</t>
+  </si>
+  <si>
+    <t>Modification de la vérification du pseudo/mdp + ajout des données rentrées lors de l'enregistrement dans la base de données. MDP non crypté, photo non/mal traitée</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -235,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +272,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -395,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -481,6 +505,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -508,8 +535,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,11 +817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -809,29 +836,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -847,11 +874,11 @@
       <c r="D4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -866,11 +893,11 @@
       <c r="D5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -885,11 +912,11 @@
       <c r="D6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -904,11 +931,11 @@
       <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -923,11 +950,11 @@
       <c r="D8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -942,11 +969,11 @@
       <c r="D9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -961,11 +988,11 @@
       <c r="D10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -980,11 +1007,11 @@
       <c r="D11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1002,11 +1029,11 @@
       <c r="D12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -1021,11 +1048,11 @@
       <c r="D13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -1040,11 +1067,11 @@
       <c r="D14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
@@ -1057,11 +1084,11 @@
       <c r="D15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
@@ -1074,11 +1101,11 @@
       <c r="D16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -1091,11 +1118,11 @@
       <c r="D17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -1108,11 +1135,11 @@
       <c r="D18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
@@ -1125,11 +1152,11 @@
       <c r="D19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -1142,11 +1169,11 @@
       <c r="D20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
@@ -1159,11 +1186,11 @@
       <c r="D21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1176,9 +1203,9 @@
       <c r="D22" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
@@ -1191,9 +1218,9 @@
       <c r="D23" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
@@ -1206,9 +1233,9 @@
       <c r="D24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
@@ -1221,11 +1248,11 @@
       <c r="D25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
@@ -1238,24 +1265,24 @@
       <c r="D26" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="5">
         <v>43158</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="29" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
@@ -1266,9 +1293,9 @@
       <c r="D28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
@@ -1279,144 +1306,164 @@
       <c r="D29" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="5">
+        <v>43158</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
+    </row>
+    <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="5">
+        <v>43159</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="6"/>
       <c r="C32" s="17"/>
       <c r="D32" s="23"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="6"/>
       <c r="C33" s="17"/>
       <c r="D33" s="23"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="6"/>
       <c r="C34" s="17"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="6"/>
       <c r="C35" s="17"/>
       <c r="D35" s="23"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="6"/>
       <c r="C36" s="17"/>
       <c r="D36" s="23"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="6"/>
       <c r="C37" s="17"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="31"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="6"/>
       <c r="C38" s="17"/>
       <c r="D38" s="23"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="31"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="6"/>
       <c r="C39" s="17"/>
       <c r="D39" s="23"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="31"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="6"/>
       <c r="C40" s="17"/>
       <c r="D40" s="23"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="31"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="6"/>
       <c r="C41" s="17"/>
       <c r="D41" s="23"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="6"/>
       <c r="C42" s="17"/>
       <c r="D42" s="23"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="31"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="6"/>
       <c r="C43" s="17"/>
       <c r="D43" s="23"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="31"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="6"/>
       <c r="C44" s="17"/>
       <c r="D44" s="23"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="31"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
@@ -1530,27 +1577,16 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1563,16 +1599,27 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>Personne</t>
   </si>
@@ -216,12 +216,27 @@
   </si>
   <si>
     <t>Modification de la vérification du pseudo/mdp + ajout des données rentrées lors de l'enregistrement dans la base de données. MDP non crypté, photo non/mal traitée</t>
+  </si>
+  <si>
+    <t>29.02.2018</t>
+  </si>
+  <si>
+    <t>180min</t>
+  </si>
+  <si>
+    <t>Cryptage du mot de passe fonctionnel, la photo rentre dans la pictureBox et est enregistrée en local</t>
+  </si>
+  <si>
+    <t>Implémentation de la connexion</t>
+  </si>
+  <si>
+    <t>Vérification que les identifiants correspondent. Implémentation du bouton "remember me"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -508,6 +523,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -533,9 +551,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -817,11 +832,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -836,29 +851,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -874,11 +889,11 @@
       <c r="D4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -893,11 +908,11 @@
       <c r="D5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -912,11 +927,11 @@
       <c r="D6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -931,11 +946,11 @@
       <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -950,11 +965,11 @@
       <c r="D8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -969,11 +984,11 @@
       <c r="D9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -988,11 +1003,11 @@
       <c r="D10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1007,11 +1022,11 @@
       <c r="D11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1029,11 +1044,11 @@
       <c r="D12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -1048,11 +1063,11 @@
       <c r="D13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -1067,11 +1082,11 @@
       <c r="D14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
@@ -1084,11 +1099,11 @@
       <c r="D15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
@@ -1101,11 +1116,11 @@
       <c r="D16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -1118,11 +1133,11 @@
       <c r="D17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -1135,11 +1150,11 @@
       <c r="D18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
@@ -1152,11 +1167,11 @@
       <c r="D19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -1169,11 +1184,11 @@
       <c r="D20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
@@ -1186,11 +1201,11 @@
       <c r="D21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1203,9 +1218,9 @@
       <c r="D22" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
@@ -1218,9 +1233,9 @@
       <c r="D23" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
@@ -1233,9 +1248,9 @@
       <c r="D24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
@@ -1248,11 +1263,11 @@
       <c r="D25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
@@ -1265,9 +1280,9 @@
       <c r="D26" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
@@ -1280,9 +1295,9 @@
       <c r="D27" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
@@ -1293,9 +1308,9 @@
       <c r="D28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
@@ -1306,12 +1321,12 @@
       <c r="D29" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="5">
@@ -1323,14 +1338,14 @@
       <c r="D30" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="5">
@@ -1342,128 +1357,142 @@
       <c r="D31" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
+      <c r="C33" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="6"/>
       <c r="C34" s="17"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="6"/>
       <c r="C35" s="17"/>
       <c r="D35" s="23"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="6"/>
       <c r="C36" s="17"/>
       <c r="D36" s="23"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="6"/>
       <c r="C37" s="17"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="6"/>
       <c r="C38" s="17"/>
       <c r="D38" s="23"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="6"/>
       <c r="C39" s="17"/>
       <c r="D39" s="23"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="6"/>
       <c r="C40" s="17"/>
       <c r="D40" s="23"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="6"/>
       <c r="C41" s="17"/>
       <c r="D41" s="23"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="6"/>
       <c r="C42" s="17"/>
       <c r="D42" s="23"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="6"/>
       <c r="C43" s="17"/>
       <c r="D43" s="23"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="6"/>
       <c r="C44" s="17"/>
       <c r="D44" s="23"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
@@ -1577,16 +1606,27 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1599,27 +1639,16 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>Personne</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>Vérification que les identifiants correspondent. Implémentation du bouton "remember me"</t>
+  </si>
+  <si>
+    <t>CODE A NETTOYER</t>
+  </si>
+  <si>
+    <t>Lorsqu'on se connecte, les informations s'affichent sur notre profil</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -526,6 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -835,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -848,32 +855,33 @@
     <col min="5" max="5" width="9.5" style="26" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="26" customWidth="1"/>
     <col min="7" max="7" width="24.125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -889,11 +897,11 @@
       <c r="D4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -908,11 +916,11 @@
       <c r="D5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -927,11 +935,11 @@
       <c r="D6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -946,11 +954,11 @@
       <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -965,11 +973,11 @@
       <c r="D8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -984,11 +992,11 @@
       <c r="D9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -1003,11 +1011,11 @@
       <c r="D10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1022,11 +1030,11 @@
       <c r="D11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1044,11 +1052,11 @@
       <c r="D12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -1063,11 +1071,11 @@
       <c r="D13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -1082,11 +1090,11 @@
       <c r="D14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
@@ -1099,11 +1107,11 @@
       <c r="D15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
@@ -1116,11 +1124,11 @@
       <c r="D16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -1133,11 +1141,11 @@
       <c r="D17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -1150,11 +1158,11 @@
       <c r="D18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
@@ -1167,11 +1175,11 @@
       <c r="D19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -1184,11 +1192,11 @@
       <c r="D20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
@@ -1201,11 +1209,11 @@
       <c r="D21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1218,9 +1226,9 @@
       <c r="D22" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
@@ -1233,9 +1241,9 @@
       <c r="D23" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
@@ -1248,9 +1256,9 @@
       <c r="D24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
@@ -1263,11 +1271,11 @@
       <c r="D25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
@@ -1280,9 +1288,9 @@
       <c r="D26" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
@@ -1295,9 +1303,9 @@
       <c r="D27" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
@@ -1308,9 +1316,9 @@
       <c r="D28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
@@ -1321,9 +1329,9 @@
       <c r="D29" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
@@ -1338,11 +1346,11 @@
       <c r="D30" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
@@ -1357,11 +1365,11 @@
       <c r="D31" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
@@ -1374,13 +1382,13 @@
       <c r="D32" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
+    </row>
+    <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="6"/>
       <c r="C33" s="17" t="s">
@@ -1389,112 +1397,119 @@
       <c r="D33" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="33"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="34"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="6"/>
       <c r="C35" s="17"/>
       <c r="D35" s="23"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="6"/>
       <c r="C36" s="17"/>
       <c r="D36" s="23"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="34"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="6"/>
       <c r="C37" s="17"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="34"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="6"/>
       <c r="C38" s="17"/>
       <c r="D38" s="23"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="32"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="6"/>
       <c r="C39" s="17"/>
       <c r="D39" s="23"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="32"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="6"/>
       <c r="C40" s="17"/>
       <c r="D40" s="23"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="6"/>
       <c r="C41" s="17"/>
       <c r="D41" s="23"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="32"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="34"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="6"/>
       <c r="C42" s="17"/>
       <c r="D42" s="23"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="32"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="34"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="6"/>
       <c r="C43" s="17"/>
       <c r="D43" s="23"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="32"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="34"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="6"/>
       <c r="C44" s="17"/>
       <c r="D44" s="23"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="33"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="32"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="34"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="7"/>
       <c r="C45" s="18"/>
@@ -1503,7 +1518,7 @@
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="8"/>
       <c r="C46" s="19"/>
@@ -1512,7 +1527,7 @@
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="8"/>
       <c r="C47" s="19"/>
@@ -1521,7 +1536,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="8"/>
       <c r="C48" s="19"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>Personne</t>
   </si>
@@ -218,9 +218,6 @@
     <t>Modification de la vérification du pseudo/mdp + ajout des données rentrées lors de l'enregistrement dans la base de données. MDP non crypté, photo non/mal traitée</t>
   </si>
   <si>
-    <t>29.02.2018</t>
-  </si>
-  <si>
     <t>180min</t>
   </si>
   <si>
@@ -237,6 +234,12 @@
   </si>
   <si>
     <t>Lorsqu'on se connecte, les informations s'affichent sur notre profil</t>
+  </si>
+  <si>
+    <t>Modifications des infos du profil</t>
+  </si>
+  <si>
+    <t>Les exceptions ne sont pas encore gérées</t>
   </si>
 </sst>
 </file>
@@ -842,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1373,17 +1376,17 @@
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="6" t="s">
-        <v>64</v>
+      <c r="B32" s="5">
+        <v>43160</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D32" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="32" t="s">
         <v>65</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>66</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="34"/>
@@ -1392,25 +1395,25 @@
       <c r="A33" s="11"/>
       <c r="B33" s="6"/>
       <c r="C33" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="34"/>
       <c r="H33" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="6"/>
       <c r="C34" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>53</v>
@@ -1418,15 +1421,29 @@
       <c r="E34" s="32"/>
       <c r="F34" s="33"/>
       <c r="G34" s="34"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="32"/>
+      <c r="B35" s="5">
+        <v>43161</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>71</v>
+      </c>
       <c r="F35" s="33"/>
       <c r="G35" s="34"/>
+      <c r="H35" s="31" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
@@ -1621,27 +1638,16 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1654,16 +1660,27 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
   <si>
     <t>Personne</t>
   </si>
@@ -240,6 +240,24 @@
   </si>
   <si>
     <t>Les exceptions ne sont pas encore gérées</t>
+  </si>
+  <si>
+    <t>Création d'une application client serveur</t>
+  </si>
+  <si>
+    <t>Ajout d'un utilisateur ds la base de données</t>
+  </si>
+  <si>
+    <t>2-3h ?</t>
+  </si>
+  <si>
+    <t>L'ajout de l'utilisateur fonctionne</t>
+  </si>
+  <si>
+    <t>Résolution de probleme concernant l'ajout de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Je n'arrive toujours pas à ajouter l'utilisateur dans la base de donnée alors que ca fonctionnait chez moi… Probleme a résoudre !</t>
   </si>
 </sst>
 </file>
@@ -845,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:G35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1445,30 +1463,52 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="32"/>
+    <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="5">
+        <v>43163</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="F36" s="33"/>
       <c r="G36" s="34"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>58</v>
+      </c>
       <c r="B37" s="6"/>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17" t="s">
+        <v>73</v>
+      </c>
       <c r="D37" s="23"/>
       <c r="E37" s="32"/>
       <c r="F37" s="33"/>
       <c r="G37" s="34"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="32"/>
+      <c r="B38" s="5">
+        <v>43164</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>77</v>
+      </c>
       <c r="F38" s="33"/>
       <c r="G38" s="34"/>
     </row>
@@ -1638,16 +1678,27 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1660,27 +1711,16 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\Planification_JournalDeTravail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12210" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
   <si>
     <t>Personne</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Vérification que les identifiants correspondent. Implémentation du bouton "remember me"</t>
   </si>
   <si>
-    <t>CODE A NETTOYER</t>
-  </si>
-  <si>
     <t>Lorsqu'on se connecte, les informations s'affichent sur notre profil</t>
   </si>
   <si>
@@ -240,13 +237,64 @@
   </si>
   <si>
     <t>Les exceptions ne sont pas encore gérées</t>
+  </si>
+  <si>
+    <t>Création d'une application client serveur</t>
+  </si>
+  <si>
+    <t>Ajout d'un utilisateur ds la base de données</t>
+  </si>
+  <si>
+    <t>2-3h ?</t>
+  </si>
+  <si>
+    <t>L'ajout de l'utilisateur fonctionne</t>
+  </si>
+  <si>
+    <t>Résolution de probleme concernant l'ajout de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Je n'arrive toujours pas à ajouter l'utilisateur dans la base de donnée alors que ca fonctionnait chez moi… Probleme a résoudre !</t>
+  </si>
+  <si>
+    <t>Essai d'utilisation de socket</t>
+  </si>
+  <si>
+    <t>Je comprends pas ocmment ca marche, recherche de sites…</t>
+  </si>
+  <si>
+    <t>Essai d'utilisation de socket ou autre</t>
+  </si>
+  <si>
+    <t>Je ne comprends toujours pas</t>
+  </si>
+  <si>
+    <t>210min</t>
+  </si>
+  <si>
+    <t>Recherches, essais</t>
+  </si>
+  <si>
+    <t>J'arrive finalement a faire communiquer mon client avec mon serveur grâce au protocole TCP</t>
+  </si>
+  <si>
+    <t>Hasher le mdp avant de l'envoyer au serveur + connexion au chat</t>
+  </si>
+  <si>
+    <t>Problème lors de la connexion de l'utilisateur, même si je tappe le bon mdp --&gt; "mauvais identifiants" (cela fonctionnait lorsque j'avais une application sans serveur)</t>
+  </si>
+  <si>
+    <t>RETARD SUR LE RENDU CLIENT, JE N'AI PAS ENCORE PU COMMENCER CE QUE JE DEVAIS RENDRE CETTE SEMAINE !</t>
+  </si>
+  <si>
+    <t>Je prévois de rattraper mon retard ce week end si possible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,8 +324,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +356,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -443,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -536,6 +596,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -842,11 +904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:G35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -862,29 +924,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -900,11 +962,11 @@
       <c r="D4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -919,11 +981,11 @@
       <c r="D5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -938,11 +1000,11 @@
       <c r="D6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -957,11 +1019,11 @@
       <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -976,11 +1038,11 @@
       <c r="D8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -995,11 +1057,11 @@
       <c r="D9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -1014,11 +1076,11 @@
       <c r="D10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1033,11 +1095,11 @@
       <c r="D11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1055,11 +1117,11 @@
       <c r="D12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -1074,11 +1136,11 @@
       <c r="D13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -1093,11 +1155,11 @@
       <c r="D14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
@@ -1110,11 +1172,11 @@
       <c r="D15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
@@ -1127,11 +1189,11 @@
       <c r="D16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -1144,11 +1206,11 @@
       <c r="D17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -1161,11 +1223,11 @@
       <c r="D18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
@@ -1178,11 +1240,11 @@
       <c r="D19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -1195,11 +1257,11 @@
       <c r="D20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
@@ -1212,11 +1274,11 @@
       <c r="D21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1229,9 +1291,9 @@
       <c r="D22" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
@@ -1244,9 +1306,9 @@
       <c r="D23" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
@@ -1259,9 +1321,9 @@
       <c r="D24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
@@ -1274,11 +1336,11 @@
       <c r="D25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
@@ -1291,9 +1353,9 @@
       <c r="D26" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
@@ -1306,9 +1368,9 @@
       <c r="D27" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
@@ -1319,9 +1381,9 @@
       <c r="D28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
@@ -1332,9 +1394,9 @@
       <c r="D29" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
@@ -1349,11 +1411,11 @@
       <c r="D30" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
@@ -1368,11 +1430,11 @@
       <c r="D31" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
@@ -1385,13 +1447,13 @@
       <c r="D32" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
-    </row>
-    <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+    </row>
+    <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="6"/>
       <c r="C33" s="17" t="s">
@@ -1400,133 +1462,207 @@
       <c r="D33" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="33"/>
+    </row>
+    <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="6"/>
       <c r="C34" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="33"/>
+    </row>
+    <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="5">
         <v>43161</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="5">
+        <v>43163</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="34"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="D36" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>58</v>
+      </c>
       <c r="B37" s="6"/>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="D37" s="23"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="34"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="34"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="34"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="5">
+        <v>43164</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="5">
+        <v>43164</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
+    </row>
+    <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="34"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="34"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="34"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
+        <v>43165</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="5">
+        <v>43165</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="5">
+        <v>43166</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="6"/>
       <c r="C43" s="17"/>
       <c r="D43" s="23"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="34"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E43" s="34"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="6"/>
       <c r="C44" s="17"/>
       <c r="D44" s="23"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="34"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="7"/>
       <c r="C45" s="18"/>
@@ -1535,7 +1671,7 @@
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="8"/>
       <c r="C46" s="19"/>
@@ -1544,7 +1680,7 @@
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="8"/>
       <c r="C47" s="19"/>
@@ -1553,7 +1689,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="8"/>
       <c r="C48" s="19"/>
@@ -1638,16 +1774,27 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1660,27 +1807,16 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,6 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661EEE5E-B291-41B1-8B7C-B3DBE9F9804A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
   <si>
     <t>Personne</t>
   </si>
@@ -288,6 +289,15 @@
   </si>
   <si>
     <t>Je prévois de rattraper mon retard ce week end si possible</t>
+  </si>
+  <si>
+    <t>"Debuggage"</t>
+  </si>
+  <si>
+    <t>50min</t>
+  </si>
+  <si>
+    <t>Enfin réussi à me connecter, je hashais 2 fois mon mdp ……………………</t>
   </si>
 </sst>
 </file>
@@ -908,7 +918,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1635,11 +1645,21 @@
       <c r="O42" s="32"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="34"/>
+      <c r="A43" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="5">
+        <v>43166</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>90</v>
+      </c>
       <c r="F43" s="35"/>
       <c r="G43" s="36"/>
       <c r="H43" s="31" t="s">
@@ -1683,7 +1703,7 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="19"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="25"/>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
@@ -1774,27 +1794,16 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1807,16 +1816,27 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661EEE5E-B291-41B1-8B7C-B3DBE9F9804A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
   <si>
     <t>Personne</t>
   </si>
@@ -298,12 +297,36 @@
   </si>
   <si>
     <t>Enfin réussi à me connecter, je hashais 2 fois mon mdp ……………………</t>
+  </si>
+  <si>
+    <t>Charger les données du profil lors de la connexion</t>
+  </si>
+  <si>
+    <t>Trouver comment changer le contenu des formulaires sans en ouvrir de nouveau et appliquer les modifications</t>
+  </si>
+  <si>
+    <t>Déplacer la verification du pseudoExistant lors de la création d'un user sur le serveur</t>
+  </si>
+  <si>
+    <t>60 min</t>
+  </si>
+  <si>
+    <t>65min</t>
+  </si>
+  <si>
+    <t>Envoyer la demande de contact</t>
+  </si>
+  <si>
+    <t>Modification de la BD, rajout d'un champ fkUserContact</t>
+  </si>
+  <si>
+    <t>Mettre a jour la liste de demandes envoyées</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -373,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -503,6 +526,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -533,12 +591,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -548,12 +600,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -566,12 +612,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -584,19 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -634,6 +662,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,49 +972,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="9" customWidth="1"/>
+    <col min="1" max="1" width="16" style="7" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="32.25" style="18" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -966,826 +1024,856 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4">
         <v>43132</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5">
         <v>43132</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="5">
         <v>43133</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="5">
         <v>43133</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5">
         <v>43136</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>43137</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="5">
         <v>43139</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="5">
         <v>43139</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="5">
         <v>43139</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="5">
         <v>43139</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="5">
         <v>43139</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="5">
         <v>43140</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="5">
         <v>43143</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="5">
         <v>43143</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="5">
         <v>43144</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="5">
         <v>43144</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="5">
         <v>43146</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="5">
         <v>43146</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="5">
         <v>43146</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="5">
         <v>43146</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="5">
         <v>43146</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="5">
         <v>43157</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="5">
         <v>43158</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="5">
         <v>43158</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="5">
         <v>43159</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="5">
         <v>43160</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="33"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="33"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="5">
         <v>43161</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="33"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="5">
         <v>43163</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="6"/>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="5">
         <v>43164</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="5">
         <v>43164</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="5">
         <v>43165</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B41" s="5">
         <v>43165</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="5">
         <v>43166</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="32" t="s">
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B43" s="5">
         <v>43166</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="31" t="s">
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+    </row>
+    <row r="44" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34">
+        <v>43167</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="39"/>
+    </row>
+    <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
+    </row>
+    <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="40"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="42"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="41"/>
+      <c r="G47" s="42"/>
+    </row>
+    <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="40"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="42"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="42"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="42"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="42"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="42"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="42"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="42"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="42"/>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A1048576" s="9" t="s">
+      <c r="A1048576" s="7" t="s">
         <v>7</v>
       </c>
       <c r="XFD1048576" t="s">
@@ -1793,17 +1881,40 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+  <mergeCells count="55">
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1816,27 +1927,16 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
   <si>
     <t>Personne</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Mettre a jour la liste de demandes envoyées</t>
+  </si>
+  <si>
+    <t>Les demandes envoyées s'affichent correctement dans la liste</t>
   </si>
 </sst>
 </file>
@@ -636,6 +639,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -645,6 +669,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -662,36 +695,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48:G48"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -992,29 +995,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1030,11 +1033,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1049,11 +1052,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1068,11 +1071,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1087,11 +1090,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1106,11 +1109,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1125,11 +1128,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1144,11 +1147,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1163,11 +1166,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1185,11 +1188,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1204,11 +1207,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1223,11 +1226,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1240,11 +1243,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1257,11 +1260,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1274,11 +1277,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1291,11 +1294,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1308,11 +1311,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1325,11 +1328,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1342,11 +1345,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1359,9 +1362,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1374,9 +1377,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1389,9 +1392,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1404,11 +1407,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1421,9 +1424,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1436,9 +1439,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1449,9 +1452,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1462,9 +1465,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1479,11 +1482,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1498,11 +1501,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1515,11 +1518,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1530,11 +1533,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1546,9 +1549,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1562,11 +1565,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1582,11 +1585,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1597,9 +1600,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1612,11 +1615,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1631,11 +1634,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1648,11 +1651,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1667,11 +1670,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1686,11 +1689,11 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
@@ -1715,11 +1718,11 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
       <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
@@ -1732,19 +1735,19 @@
       <c r="O43" s="21"/>
     </row>
     <row r="44" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="34">
+      <c r="A44" s="24"/>
+      <c r="B44" s="25">
         <v>43167</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="39"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1755,9 +1758,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="42"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1768,9 +1771,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1781,11 +1784,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="42"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1796,81 +1799,87 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="42"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+    </row>
+    <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="42"/>
+      <c r="B49" s="5">
+        <v>43168</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="6"/>
       <c r="C50" s="13"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="42"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="6"/>
       <c r="C51" s="13"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="42"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="6"/>
       <c r="C52" s="13"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="42"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="6"/>
       <c r="C53" s="13"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="42"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="6"/>
       <c r="C54" s="13"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="42"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="30"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="6"/>
       <c r="C55" s="13"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="42"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="6"/>
       <c r="C56" s="13"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="42"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="30"/>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.25">
       <c r="A1048576" s="7" t="s">
@@ -1882,39 +1891,16 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1927,16 +1913,39 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\Planification_JournalDeTravail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
   <si>
     <t>Personne</t>
   </si>
@@ -324,12 +324,21 @@
   </si>
   <si>
     <t>Les demandes envoyées s'affichent correctement dans la liste</t>
+  </si>
+  <si>
+    <t>Gestion des contacts</t>
+  </si>
+  <si>
+    <t>260min</t>
+  </si>
+  <si>
+    <t>Reste la modification du contact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -652,6 +661,42 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,42 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,11 +984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49:G49"/>
+      <selection activeCell="E50" sqref="E50:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -995,29 +1004,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1033,11 +1042,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1052,11 +1061,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1071,11 +1080,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1090,11 +1099,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1109,11 +1118,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1128,11 +1137,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1147,11 +1156,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1166,11 +1175,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1188,11 +1197,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1207,11 +1216,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1226,11 +1235,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1243,11 +1252,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1260,11 +1269,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1277,11 +1286,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1294,11 +1303,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1311,11 +1320,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1328,11 +1337,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1345,11 +1354,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1362,9 +1371,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1377,9 +1386,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1392,9 +1401,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1407,11 +1416,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1424,9 +1433,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1439,9 +1448,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1452,9 +1461,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1465,9 +1474,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1482,11 +1491,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1501,11 +1510,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1518,11 +1527,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1533,11 +1542,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1549,9 +1558,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1565,11 +1574,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1585,11 +1594,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1600,9 +1609,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1615,11 +1624,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1634,11 +1643,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1651,11 +1660,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1670,11 +1679,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1689,11 +1698,11 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
@@ -1718,11 +1727,11 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
@@ -1745,9 +1754,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="39"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1758,9 +1767,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1771,9 +1780,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="42"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1784,11 +1793,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="30"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="42"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1799,9 +1808,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="30"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1814,72 +1823,80 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="42"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
+      <c r="B50" s="5">
+        <v>43169</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="41"/>
+      <c r="G50" s="42"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="6"/>
       <c r="C51" s="13"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="42"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="6"/>
       <c r="C52" s="13"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="30"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="42"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="6"/>
       <c r="C53" s="13"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="30"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="42"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="6"/>
       <c r="C54" s="13"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="30"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="42"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="6"/>
       <c r="C55" s="13"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="30"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="42"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="6"/>
       <c r="C56" s="13"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="30"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="42"/>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.25">
       <c r="A1048576" s="7" t="s">
@@ -1891,16 +1908,39 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1913,39 +1953,16 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
   <si>
     <t>Personne</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>Reste la modification du contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification des contacts </t>
+  </si>
+  <si>
+    <t>Nettoyage code Serveur</t>
+  </si>
+  <si>
+    <t>Reste a nettoyer la partie BD et le client</t>
   </si>
 </sst>
 </file>
@@ -661,6 +670,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -669,6 +687,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -686,24 +713,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,7 +997,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:G50"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1004,29 +1013,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1042,11 +1051,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1061,11 +1070,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1080,11 +1089,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1099,11 +1108,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1118,11 +1127,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1137,11 +1146,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1156,11 +1165,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1175,11 +1184,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1197,11 +1206,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1216,11 +1225,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1235,11 +1244,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1252,11 +1261,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1269,11 +1278,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1286,11 +1295,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1303,11 +1312,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1320,11 +1329,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1337,11 +1346,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1354,11 +1363,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1371,9 +1380,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1386,9 +1395,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1401,9 +1410,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1416,11 +1425,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1433,9 +1442,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1448,9 +1457,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1461,9 +1470,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1474,9 +1483,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1491,11 +1500,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1510,11 +1519,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1527,11 +1536,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1542,11 +1551,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1558,9 +1567,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1574,11 +1583,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1594,11 +1603,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1609,9 +1618,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1624,11 +1633,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1643,11 +1652,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1660,11 +1669,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="30"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1679,11 +1688,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="30"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1698,11 +1707,11 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
@@ -1727,11 +1736,11 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="30"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
       <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
@@ -1754,9 +1763,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="39"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1767,9 +1776,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="42"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1780,9 +1789,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1793,11 +1802,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="42"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1808,9 +1817,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="42"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1823,9 +1832,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="42"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
@@ -1838,65 +1847,77 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="42"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="42"/>
+      <c r="B51" s="5">
+        <v>43170</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="28"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="42"/>
+      <c r="C52" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="6"/>
       <c r="C53" s="13"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="42"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="6"/>
       <c r="C54" s="13"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="42"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="30"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="6"/>
       <c r="C55" s="13"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="42"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="6"/>
       <c r="C56" s="13"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="42"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="30"/>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.25">
       <c r="A1048576" s="7" t="s">
@@ -1908,39 +1929,16 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1953,16 +1951,39 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
   <si>
     <t>Personne</t>
   </si>
@@ -342,12 +342,18 @@
   </si>
   <si>
     <t>Reste a nettoyer la partie BD et le client</t>
+  </si>
+  <si>
+    <t>Nettoyage code ConnexionBD</t>
+  </si>
+  <si>
+    <t>Commencement coder création de discussion, envoi de demande de disucssion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -670,6 +676,42 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,42 +719,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,11 +999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1013,29 +1019,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1051,11 +1057,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1070,11 +1076,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1089,11 +1095,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1108,11 +1114,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1127,11 +1133,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1146,11 +1152,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1165,11 +1171,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1184,11 +1190,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1206,11 +1212,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1225,11 +1231,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1244,11 +1250,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1261,11 +1267,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1278,11 +1284,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1295,11 +1301,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1312,11 +1318,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1329,11 +1335,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1346,11 +1352,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1363,11 +1369,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1380,9 +1386,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1395,9 +1401,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1410,9 +1416,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1425,11 +1431,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1442,9 +1448,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1457,9 +1463,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1470,9 +1476,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1483,9 +1489,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1500,11 +1506,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1519,11 +1525,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1536,11 +1542,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1551,11 +1557,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1567,9 +1573,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1583,11 +1589,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1603,11 +1609,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1618,9 +1624,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1633,11 +1639,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1652,11 +1658,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1669,11 +1675,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1688,11 +1694,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1707,11 +1713,11 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
@@ -1736,11 +1742,11 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
@@ -1763,9 +1769,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="39"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1776,9 +1782,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1789,9 +1795,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="42"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1802,11 +1808,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="30"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="42"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1817,9 +1823,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="30"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1832,12 +1838,14 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="42"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
+      <c r="A50" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="B50" s="5">
         <v>43169</v>
       </c>
@@ -1847,14 +1855,16 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="42"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
+      <c r="A51" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="B51" s="5">
         <v>43170</v>
       </c>
@@ -1864,9 +1874,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="42"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -1877,47 +1887,59 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="30"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="42"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="30"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="5">
+        <v>43171</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="40"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="42"/>
+    </row>
+    <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="30"/>
+      <c r="B54" s="5">
+        <v>43172</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="40"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="42"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="6"/>
       <c r="C55" s="13"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="30"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="42"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="6"/>
       <c r="C56" s="13"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="30"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="42"/>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.25">
       <c r="A1048576" s="7" t="s">
@@ -1929,16 +1951,39 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1951,39 +1996,16 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\Planification_JournalDeTravail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313FEA06-9E6E-4253-99DF-8AF3E29C9AA2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="111">
   <si>
     <t>Personne</t>
   </si>
@@ -348,12 +349,21 @@
   </si>
   <si>
     <t>Commencement coder création de discussion, envoi de demande de disucssion</t>
+  </si>
+  <si>
+    <t>Créer discussion + créer participation a la discussion</t>
+  </si>
+  <si>
+    <t>120min</t>
+  </si>
+  <si>
+    <t>La discussion se crée, les participants a la discussion s'ajoutent dans la base de données. Reste a ajouter la discussion pour le createur et les demandes pour les participants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -676,6 +686,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -684,6 +703,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -701,24 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,11 +1009,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1014,34 +1024,34 @@
     <col min="4" max="4" width="14.5" style="14" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="18" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="32.25" style="18" customWidth="1"/>
+    <col min="7" max="7" width="39.75" style="18" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1057,11 +1067,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1076,11 +1086,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1095,11 +1105,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1114,11 +1124,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1133,11 +1143,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1152,11 +1162,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1171,11 +1181,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1190,11 +1200,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1212,11 +1222,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1231,11 +1241,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1250,11 +1260,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1267,11 +1277,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1284,11 +1294,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1301,11 +1311,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1318,11 +1328,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1335,11 +1345,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1352,11 +1362,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1369,11 +1379,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1386,9 +1396,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1401,9 +1411,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1416,9 +1426,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1431,11 +1441,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1448,9 +1458,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1463,9 +1473,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1476,9 +1486,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1489,9 +1499,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1506,11 +1516,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1525,11 +1535,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1542,11 +1552,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1557,11 +1567,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1573,9 +1583,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1589,11 +1599,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1609,11 +1619,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1624,9 +1634,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1639,11 +1649,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1658,11 +1668,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1675,11 +1685,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="30"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1694,11 +1704,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="30"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1713,11 +1723,11 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
@@ -1742,11 +1752,11 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="30"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
       <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
@@ -1769,9 +1779,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="39"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1782,9 +1792,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="42"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1795,9 +1805,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1808,11 +1818,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="42"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1823,9 +1833,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="42"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1838,9 +1848,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="42"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -1855,11 +1865,11 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="42"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -1874,9 +1884,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="42"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -1887,11 +1897,11 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="42"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -1904,9 +1914,9 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="40"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="42"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
     </row>
     <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -1919,27 +1929,37 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="42"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="42"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="30"/>
+    </row>
+    <row r="55" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="5">
+        <v>43172</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="33"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="6"/>
       <c r="C56" s="13"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="42"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="30"/>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.25">
       <c r="A1048576" s="7" t="s">
@@ -1951,39 +1971,16 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1996,16 +1993,39 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313FEA06-9E6E-4253-99DF-8AF3E29C9AA2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="115">
   <si>
     <t>Personne</t>
   </si>
@@ -358,12 +357,24 @@
   </si>
   <si>
     <t>La discussion se crée, les participants a la discussion s'ajoutent dans la base de données. Reste a ajouter la discussion pour le createur et les demandes pour les participants</t>
+  </si>
+  <si>
+    <t>Livrable M. Benzonana</t>
+  </si>
+  <si>
+    <t>Je vais changer ma BD sur conseil de M. Benzonana, j'ai de la redondance entre ma table demandesContact et ma table contact</t>
+  </si>
+  <si>
+    <t>Affichage demandes discussion envoyées + modification BD suppression de la table administrateur</t>
+  </si>
+  <si>
+    <t>trouvé autre facon de faire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -401,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +440,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -686,6 +703,42 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,41 +747,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,11 +1068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55:G55"/>
+      <selection activeCell="E58" sqref="E58:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1029,29 +1088,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1067,11 +1126,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1086,11 +1145,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1105,11 +1164,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1124,11 +1183,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1143,11 +1202,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1162,11 +1221,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1181,11 +1240,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1200,11 +1259,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1222,11 +1281,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1241,11 +1300,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1260,11 +1319,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1277,11 +1336,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1294,11 +1353,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1311,11 +1370,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1328,11 +1387,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1345,11 +1404,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1362,11 +1421,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1379,11 +1438,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1396,9 +1455,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1411,9 +1470,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1426,9 +1485,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1441,11 +1500,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1458,9 +1517,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1473,9 +1532,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1486,9 +1545,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1499,9 +1558,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1516,11 +1575,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1535,11 +1594,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1552,11 +1611,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1567,11 +1626,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1583,9 +1642,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1599,11 +1658,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1619,11 +1678,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1634,9 +1693,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1649,11 +1708,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1668,11 +1727,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1685,11 +1744,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1704,11 +1763,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1723,11 +1782,11 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
@@ -1752,11 +1811,11 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
@@ -1779,9 +1838,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="39"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1792,9 +1851,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1805,9 +1864,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="42"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1818,11 +1877,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="30"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="42"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1833,9 +1892,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="30"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1848,9 +1907,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="42"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -1865,11 +1924,11 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="42"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -1884,9 +1943,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="42"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -1897,11 +1956,11 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="30"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="42"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -1914,9 +1973,9 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="28"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="30"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="42"/>
     </row>
     <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -1929,9 +1988,9 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="28"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="30"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="42"/>
     </row>
     <row r="55" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
@@ -1946,20 +2005,2704 @@
       <c r="D55" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="32"/>
-      <c r="G55" s="33"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
+    </row>
+    <row r="56" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="28"/>
+      <c r="B56" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>112</v>
+      </c>
       <c r="F56" s="29"/>
       <c r="G56" s="30"/>
+    </row>
+    <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A57" s="43"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="53"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="55"/>
+    </row>
+    <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A58" s="43"/>
+      <c r="B58" s="56">
+        <v>43174</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" s="54"/>
+      <c r="G58" s="55"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="43"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="43"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="43"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="43"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="43"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="43"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="43"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="43"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="43"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="43"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="43"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="43"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="43"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="43"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="43"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="43"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="43"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="43"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="43"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="43"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="43"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="43"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="43"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="43"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="43"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="43"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="43"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="43"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="43"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="43"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="43"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="43"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="43"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="43"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="43"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="43"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="43"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="43"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="43"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="43"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="47"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="43"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="43"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="47"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="47"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="43"/>
+      <c r="B102" s="44"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="43"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="47"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="43"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="47"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="43"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="43"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="47"/>
+      <c r="F106" s="47"/>
+      <c r="G106" s="47"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="43"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="47"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="43"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="43"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="43"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="47"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="47"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="43"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="43"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="43"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="43"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="47"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="43"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="43"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="46"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="47"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="43"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="46"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="43"/>
+      <c r="B118" s="44"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="46"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="47"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="43"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="46"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="43"/>
+      <c r="B120" s="44"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="46"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="43"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="43"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="43"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="46"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="43"/>
+      <c r="B124" s="44"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="46"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="43"/>
+      <c r="B125" s="44"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="46"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="47"/>
+      <c r="G125" s="47"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="43"/>
+      <c r="B126" s="44"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="46"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="43"/>
+      <c r="B127" s="44"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="46"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
+      <c r="G127" s="47"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="43"/>
+      <c r="B128" s="44"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="43"/>
+      <c r="B129" s="44"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="43"/>
+      <c r="B130" s="44"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="46"/>
+      <c r="E130" s="47"/>
+      <c r="F130" s="47"/>
+      <c r="G130" s="47"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="43"/>
+      <c r="B131" s="44"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="43"/>
+      <c r="B132" s="44"/>
+      <c r="C132" s="45"/>
+      <c r="D132" s="46"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="43"/>
+      <c r="B133" s="44"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="46"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="47"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="43"/>
+      <c r="B134" s="44"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="47"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="43"/>
+      <c r="B135" s="44"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="46"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="43"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="46"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="47"/>
+      <c r="G136" s="47"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="43"/>
+      <c r="B137" s="44"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="46"/>
+      <c r="E137" s="47"/>
+      <c r="F137" s="47"/>
+      <c r="G137" s="47"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="43"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="46"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="47"/>
+      <c r="G138" s="47"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="43"/>
+      <c r="B139" s="44"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="46"/>
+      <c r="E139" s="47"/>
+      <c r="F139" s="47"/>
+      <c r="G139" s="47"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="43"/>
+      <c r="B140" s="44"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="47"/>
+      <c r="F140" s="47"/>
+      <c r="G140" s="47"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="43"/>
+      <c r="B141" s="44"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="47"/>
+      <c r="F141" s="47"/>
+      <c r="G141" s="47"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="43"/>
+      <c r="B142" s="44"/>
+      <c r="C142" s="45"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="47"/>
+      <c r="G142" s="47"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="43"/>
+      <c r="B143" s="44"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="46"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="47"/>
+      <c r="G143" s="47"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="43"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="47"/>
+      <c r="G144" s="47"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="43"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="47"/>
+      <c r="F145" s="47"/>
+      <c r="G145" s="47"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="43"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="46"/>
+      <c r="E146" s="47"/>
+      <c r="F146" s="47"/>
+      <c r="G146" s="47"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="43"/>
+      <c r="B147" s="44"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="46"/>
+      <c r="E147" s="47"/>
+      <c r="F147" s="47"/>
+      <c r="G147" s="47"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="43"/>
+      <c r="B148" s="44"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="47"/>
+      <c r="F148" s="47"/>
+      <c r="G148" s="47"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="43"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="46"/>
+      <c r="E149" s="47"/>
+      <c r="F149" s="47"/>
+      <c r="G149" s="47"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="43"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="46"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="47"/>
+      <c r="G150" s="47"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="43"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="45"/>
+      <c r="D151" s="46"/>
+      <c r="E151" s="47"/>
+      <c r="F151" s="47"/>
+      <c r="G151" s="47"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="43"/>
+      <c r="B152" s="44"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="47"/>
+      <c r="F152" s="47"/>
+      <c r="G152" s="47"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="43"/>
+      <c r="B153" s="44"/>
+      <c r="C153" s="45"/>
+      <c r="D153" s="46"/>
+      <c r="E153" s="47"/>
+      <c r="F153" s="47"/>
+      <c r="G153" s="47"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="43"/>
+      <c r="B154" s="44"/>
+      <c r="C154" s="45"/>
+      <c r="D154" s="46"/>
+      <c r="E154" s="47"/>
+      <c r="F154" s="47"/>
+      <c r="G154" s="47"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="43"/>
+      <c r="B155" s="44"/>
+      <c r="C155" s="45"/>
+      <c r="D155" s="46"/>
+      <c r="E155" s="47"/>
+      <c r="F155" s="47"/>
+      <c r="G155" s="47"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="43"/>
+      <c r="B156" s="44"/>
+      <c r="C156" s="45"/>
+      <c r="D156" s="46"/>
+      <c r="E156" s="47"/>
+      <c r="F156" s="47"/>
+      <c r="G156" s="47"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="43"/>
+      <c r="B157" s="44"/>
+      <c r="C157" s="45"/>
+      <c r="D157" s="46"/>
+      <c r="E157" s="47"/>
+      <c r="F157" s="47"/>
+      <c r="G157" s="47"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="43"/>
+      <c r="B158" s="44"/>
+      <c r="C158" s="45"/>
+      <c r="D158" s="46"/>
+      <c r="E158" s="47"/>
+      <c r="F158" s="47"/>
+      <c r="G158" s="47"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="43"/>
+      <c r="B159" s="44"/>
+      <c r="C159" s="45"/>
+      <c r="D159" s="46"/>
+      <c r="E159" s="47"/>
+      <c r="F159" s="47"/>
+      <c r="G159" s="47"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="43"/>
+      <c r="B160" s="44"/>
+      <c r="C160" s="45"/>
+      <c r="D160" s="46"/>
+      <c r="E160" s="47"/>
+      <c r="F160" s="47"/>
+      <c r="G160" s="47"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="43"/>
+      <c r="B161" s="44"/>
+      <c r="C161" s="45"/>
+      <c r="D161" s="46"/>
+      <c r="E161" s="47"/>
+      <c r="F161" s="47"/>
+      <c r="G161" s="47"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="43"/>
+      <c r="B162" s="44"/>
+      <c r="C162" s="45"/>
+      <c r="D162" s="46"/>
+      <c r="E162" s="47"/>
+      <c r="F162" s="47"/>
+      <c r="G162" s="47"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="43"/>
+      <c r="B163" s="44"/>
+      <c r="C163" s="45"/>
+      <c r="D163" s="46"/>
+      <c r="E163" s="47"/>
+      <c r="F163" s="47"/>
+      <c r="G163" s="47"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="43"/>
+      <c r="B164" s="44"/>
+      <c r="C164" s="45"/>
+      <c r="D164" s="46"/>
+      <c r="E164" s="47"/>
+      <c r="F164" s="47"/>
+      <c r="G164" s="47"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="43"/>
+      <c r="B165" s="44"/>
+      <c r="C165" s="45"/>
+      <c r="D165" s="46"/>
+      <c r="E165" s="47"/>
+      <c r="F165" s="47"/>
+      <c r="G165" s="47"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="43"/>
+      <c r="B166" s="44"/>
+      <c r="C166" s="45"/>
+      <c r="D166" s="46"/>
+      <c r="E166" s="47"/>
+      <c r="F166" s="47"/>
+      <c r="G166" s="47"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="43"/>
+      <c r="B167" s="44"/>
+      <c r="C167" s="45"/>
+      <c r="D167" s="46"/>
+      <c r="E167" s="47"/>
+      <c r="F167" s="47"/>
+      <c r="G167" s="47"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="43"/>
+      <c r="B168" s="44"/>
+      <c r="C168" s="45"/>
+      <c r="D168" s="46"/>
+      <c r="E168" s="47"/>
+      <c r="F168" s="47"/>
+      <c r="G168" s="47"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="43"/>
+      <c r="B169" s="44"/>
+      <c r="C169" s="45"/>
+      <c r="D169" s="46"/>
+      <c r="E169" s="47"/>
+      <c r="F169" s="47"/>
+      <c r="G169" s="47"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="43"/>
+      <c r="B170" s="44"/>
+      <c r="C170" s="45"/>
+      <c r="D170" s="46"/>
+      <c r="E170" s="47"/>
+      <c r="F170" s="47"/>
+      <c r="G170" s="47"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="43"/>
+      <c r="B171" s="44"/>
+      <c r="C171" s="45"/>
+      <c r="D171" s="46"/>
+      <c r="E171" s="47"/>
+      <c r="F171" s="47"/>
+      <c r="G171" s="47"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="43"/>
+      <c r="B172" s="44"/>
+      <c r="C172" s="45"/>
+      <c r="D172" s="46"/>
+      <c r="E172" s="47"/>
+      <c r="F172" s="47"/>
+      <c r="G172" s="47"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="43"/>
+      <c r="B173" s="44"/>
+      <c r="C173" s="45"/>
+      <c r="D173" s="46"/>
+      <c r="E173" s="47"/>
+      <c r="F173" s="47"/>
+      <c r="G173" s="47"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="43"/>
+      <c r="B174" s="44"/>
+      <c r="C174" s="45"/>
+      <c r="D174" s="46"/>
+      <c r="E174" s="47"/>
+      <c r="F174" s="47"/>
+      <c r="G174" s="47"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="43"/>
+      <c r="B175" s="44"/>
+      <c r="C175" s="45"/>
+      <c r="D175" s="46"/>
+      <c r="E175" s="47"/>
+      <c r="F175" s="47"/>
+      <c r="G175" s="47"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="43"/>
+      <c r="B176" s="44"/>
+      <c r="C176" s="45"/>
+      <c r="D176" s="46"/>
+      <c r="E176" s="47"/>
+      <c r="F176" s="47"/>
+      <c r="G176" s="47"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="43"/>
+      <c r="B177" s="44"/>
+      <c r="C177" s="45"/>
+      <c r="D177" s="46"/>
+      <c r="E177" s="47"/>
+      <c r="F177" s="47"/>
+      <c r="G177" s="47"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="43"/>
+      <c r="B178" s="44"/>
+      <c r="C178" s="45"/>
+      <c r="D178" s="46"/>
+      <c r="E178" s="47"/>
+      <c r="F178" s="47"/>
+      <c r="G178" s="47"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="43"/>
+      <c r="B179" s="44"/>
+      <c r="C179" s="45"/>
+      <c r="D179" s="46"/>
+      <c r="E179" s="47"/>
+      <c r="F179" s="47"/>
+      <c r="G179" s="47"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="43"/>
+      <c r="B180" s="44"/>
+      <c r="C180" s="45"/>
+      <c r="D180" s="46"/>
+      <c r="E180" s="47"/>
+      <c r="F180" s="47"/>
+      <c r="G180" s="47"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="43"/>
+      <c r="B181" s="44"/>
+      <c r="C181" s="45"/>
+      <c r="D181" s="46"/>
+      <c r="E181" s="47"/>
+      <c r="F181" s="47"/>
+      <c r="G181" s="47"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="43"/>
+      <c r="B182" s="44"/>
+      <c r="C182" s="45"/>
+      <c r="D182" s="46"/>
+      <c r="E182" s="47"/>
+      <c r="F182" s="47"/>
+      <c r="G182" s="47"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="43"/>
+      <c r="B183" s="44"/>
+      <c r="C183" s="45"/>
+      <c r="D183" s="46"/>
+      <c r="E183" s="47"/>
+      <c r="F183" s="47"/>
+      <c r="G183" s="47"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="43"/>
+      <c r="B184" s="44"/>
+      <c r="C184" s="45"/>
+      <c r="D184" s="46"/>
+      <c r="E184" s="47"/>
+      <c r="F184" s="47"/>
+      <c r="G184" s="47"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="43"/>
+      <c r="B185" s="44"/>
+      <c r="C185" s="45"/>
+      <c r="D185" s="46"/>
+      <c r="E185" s="47"/>
+      <c r="F185" s="47"/>
+      <c r="G185" s="47"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="43"/>
+      <c r="B186" s="44"/>
+      <c r="C186" s="45"/>
+      <c r="D186" s="46"/>
+      <c r="E186" s="47"/>
+      <c r="F186" s="47"/>
+      <c r="G186" s="47"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="43"/>
+      <c r="B187" s="44"/>
+      <c r="C187" s="45"/>
+      <c r="D187" s="46"/>
+      <c r="E187" s="47"/>
+      <c r="F187" s="47"/>
+      <c r="G187" s="47"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="43"/>
+      <c r="B188" s="44"/>
+      <c r="C188" s="45"/>
+      <c r="D188" s="46"/>
+      <c r="E188" s="47"/>
+      <c r="F188" s="47"/>
+      <c r="G188" s="47"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="43"/>
+      <c r="B189" s="44"/>
+      <c r="C189" s="45"/>
+      <c r="D189" s="46"/>
+      <c r="E189" s="47"/>
+      <c r="F189" s="47"/>
+      <c r="G189" s="47"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="43"/>
+      <c r="B190" s="44"/>
+      <c r="C190" s="45"/>
+      <c r="D190" s="46"/>
+      <c r="E190" s="47"/>
+      <c r="F190" s="47"/>
+      <c r="G190" s="47"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="43"/>
+      <c r="B191" s="44"/>
+      <c r="C191" s="45"/>
+      <c r="D191" s="46"/>
+      <c r="E191" s="47"/>
+      <c r="F191" s="47"/>
+      <c r="G191" s="47"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="43"/>
+      <c r="B192" s="44"/>
+      <c r="C192" s="45"/>
+      <c r="D192" s="46"/>
+      <c r="E192" s="47"/>
+      <c r="F192" s="47"/>
+      <c r="G192" s="47"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="43"/>
+      <c r="B193" s="44"/>
+      <c r="C193" s="45"/>
+      <c r="D193" s="46"/>
+      <c r="E193" s="47"/>
+      <c r="F193" s="47"/>
+      <c r="G193" s="47"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="43"/>
+      <c r="B194" s="44"/>
+      <c r="C194" s="45"/>
+      <c r="D194" s="46"/>
+      <c r="E194" s="47"/>
+      <c r="F194" s="47"/>
+      <c r="G194" s="47"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="43"/>
+      <c r="B195" s="44"/>
+      <c r="C195" s="45"/>
+      <c r="D195" s="46"/>
+      <c r="E195" s="47"/>
+      <c r="F195" s="47"/>
+      <c r="G195" s="47"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="43"/>
+      <c r="B196" s="44"/>
+      <c r="C196" s="45"/>
+      <c r="D196" s="46"/>
+      <c r="E196" s="47"/>
+      <c r="F196" s="47"/>
+      <c r="G196" s="47"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="43"/>
+      <c r="B197" s="44"/>
+      <c r="C197" s="45"/>
+      <c r="D197" s="46"/>
+      <c r="E197" s="47"/>
+      <c r="F197" s="47"/>
+      <c r="G197" s="47"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="43"/>
+      <c r="B198" s="44"/>
+      <c r="C198" s="45"/>
+      <c r="D198" s="46"/>
+      <c r="E198" s="47"/>
+      <c r="F198" s="47"/>
+      <c r="G198" s="47"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="43"/>
+      <c r="B199" s="44"/>
+      <c r="C199" s="45"/>
+      <c r="D199" s="46"/>
+      <c r="E199" s="47"/>
+      <c r="F199" s="47"/>
+      <c r="G199" s="47"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="43"/>
+      <c r="B200" s="44"/>
+      <c r="C200" s="45"/>
+      <c r="D200" s="46"/>
+      <c r="E200" s="47"/>
+      <c r="F200" s="47"/>
+      <c r="G200" s="47"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="43"/>
+      <c r="B201" s="44"/>
+      <c r="C201" s="45"/>
+      <c r="D201" s="46"/>
+      <c r="E201" s="47"/>
+      <c r="F201" s="47"/>
+      <c r="G201" s="47"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="43"/>
+      <c r="B202" s="44"/>
+      <c r="C202" s="45"/>
+      <c r="D202" s="46"/>
+      <c r="E202" s="47"/>
+      <c r="F202" s="47"/>
+      <c r="G202" s="47"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="43"/>
+      <c r="B203" s="44"/>
+      <c r="C203" s="45"/>
+      <c r="D203" s="46"/>
+      <c r="E203" s="47"/>
+      <c r="F203" s="47"/>
+      <c r="G203" s="47"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="43"/>
+      <c r="B204" s="44"/>
+      <c r="C204" s="45"/>
+      <c r="D204" s="46"/>
+      <c r="E204" s="47"/>
+      <c r="F204" s="47"/>
+      <c r="G204" s="47"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="43"/>
+      <c r="B205" s="44"/>
+      <c r="C205" s="45"/>
+      <c r="D205" s="46"/>
+      <c r="E205" s="47"/>
+      <c r="F205" s="47"/>
+      <c r="G205" s="47"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="43"/>
+      <c r="B206" s="44"/>
+      <c r="C206" s="45"/>
+      <c r="D206" s="46"/>
+      <c r="E206" s="47"/>
+      <c r="F206" s="47"/>
+      <c r="G206" s="47"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="43"/>
+      <c r="B207" s="44"/>
+      <c r="C207" s="45"/>
+      <c r="D207" s="46"/>
+      <c r="E207" s="47"/>
+      <c r="F207" s="47"/>
+      <c r="G207" s="47"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="43"/>
+      <c r="B208" s="44"/>
+      <c r="C208" s="45"/>
+      <c r="D208" s="46"/>
+      <c r="E208" s="47"/>
+      <c r="F208" s="47"/>
+      <c r="G208" s="47"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="43"/>
+      <c r="B209" s="44"/>
+      <c r="C209" s="45"/>
+      <c r="D209" s="46"/>
+      <c r="E209" s="47"/>
+      <c r="F209" s="47"/>
+      <c r="G209" s="47"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="43"/>
+      <c r="B210" s="44"/>
+      <c r="C210" s="45"/>
+      <c r="D210" s="46"/>
+      <c r="E210" s="47"/>
+      <c r="F210" s="47"/>
+      <c r="G210" s="47"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="43"/>
+      <c r="B211" s="44"/>
+      <c r="C211" s="45"/>
+      <c r="D211" s="46"/>
+      <c r="E211" s="47"/>
+      <c r="F211" s="47"/>
+      <c r="G211" s="47"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="43"/>
+      <c r="B212" s="44"/>
+      <c r="C212" s="45"/>
+      <c r="D212" s="46"/>
+      <c r="E212" s="47"/>
+      <c r="F212" s="47"/>
+      <c r="G212" s="47"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="43"/>
+      <c r="B213" s="44"/>
+      <c r="C213" s="45"/>
+      <c r="D213" s="46"/>
+      <c r="E213" s="47"/>
+      <c r="F213" s="47"/>
+      <c r="G213" s="47"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="43"/>
+      <c r="B214" s="44"/>
+      <c r="C214" s="45"/>
+      <c r="D214" s="46"/>
+      <c r="E214" s="47"/>
+      <c r="F214" s="47"/>
+      <c r="G214" s="47"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="43"/>
+      <c r="B215" s="44"/>
+      <c r="C215" s="45"/>
+      <c r="D215" s="46"/>
+      <c r="E215" s="47"/>
+      <c r="F215" s="47"/>
+      <c r="G215" s="47"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="43"/>
+      <c r="B216" s="44"/>
+      <c r="C216" s="45"/>
+      <c r="D216" s="46"/>
+      <c r="E216" s="47"/>
+      <c r="F216" s="47"/>
+      <c r="G216" s="47"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="43"/>
+      <c r="B217" s="44"/>
+      <c r="C217" s="45"/>
+      <c r="D217" s="46"/>
+      <c r="E217" s="47"/>
+      <c r="F217" s="47"/>
+      <c r="G217" s="47"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="43"/>
+      <c r="B218" s="44"/>
+      <c r="C218" s="45"/>
+      <c r="D218" s="46"/>
+      <c r="E218" s="47"/>
+      <c r="F218" s="47"/>
+      <c r="G218" s="47"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="43"/>
+      <c r="B219" s="44"/>
+      <c r="C219" s="45"/>
+      <c r="D219" s="46"/>
+      <c r="E219" s="47"/>
+      <c r="F219" s="47"/>
+      <c r="G219" s="47"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="43"/>
+      <c r="B220" s="44"/>
+      <c r="C220" s="45"/>
+      <c r="D220" s="46"/>
+      <c r="E220" s="47"/>
+      <c r="F220" s="47"/>
+      <c r="G220" s="47"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="43"/>
+      <c r="B221" s="44"/>
+      <c r="C221" s="45"/>
+      <c r="D221" s="46"/>
+      <c r="E221" s="47"/>
+      <c r="F221" s="47"/>
+      <c r="G221" s="47"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="43"/>
+      <c r="B222" s="44"/>
+      <c r="C222" s="45"/>
+      <c r="D222" s="46"/>
+      <c r="E222" s="47"/>
+      <c r="F222" s="47"/>
+      <c r="G222" s="47"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="43"/>
+      <c r="B223" s="44"/>
+      <c r="C223" s="45"/>
+      <c r="D223" s="46"/>
+      <c r="E223" s="47"/>
+      <c r="F223" s="47"/>
+      <c r="G223" s="47"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="43"/>
+      <c r="B224" s="44"/>
+      <c r="C224" s="45"/>
+      <c r="D224" s="46"/>
+      <c r="E224" s="47"/>
+      <c r="F224" s="47"/>
+      <c r="G224" s="47"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="43"/>
+      <c r="B225" s="44"/>
+      <c r="C225" s="45"/>
+      <c r="D225" s="46"/>
+      <c r="E225" s="47"/>
+      <c r="F225" s="47"/>
+      <c r="G225" s="47"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="43"/>
+      <c r="B226" s="44"/>
+      <c r="C226" s="45"/>
+      <c r="D226" s="46"/>
+      <c r="E226" s="47"/>
+      <c r="F226" s="47"/>
+      <c r="G226" s="47"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="43"/>
+      <c r="B227" s="44"/>
+      <c r="C227" s="45"/>
+      <c r="D227" s="46"/>
+      <c r="E227" s="47"/>
+      <c r="F227" s="47"/>
+      <c r="G227" s="47"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="43"/>
+      <c r="B228" s="44"/>
+      <c r="C228" s="45"/>
+      <c r="D228" s="46"/>
+      <c r="E228" s="47"/>
+      <c r="F228" s="47"/>
+      <c r="G228" s="47"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="43"/>
+      <c r="B229" s="44"/>
+      <c r="C229" s="45"/>
+      <c r="D229" s="46"/>
+      <c r="E229" s="47"/>
+      <c r="F229" s="47"/>
+      <c r="G229" s="47"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="43"/>
+      <c r="B230" s="44"/>
+      <c r="C230" s="45"/>
+      <c r="D230" s="46"/>
+      <c r="E230" s="47"/>
+      <c r="F230" s="47"/>
+      <c r="G230" s="47"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="43"/>
+      <c r="B231" s="44"/>
+      <c r="C231" s="45"/>
+      <c r="D231" s="46"/>
+      <c r="E231" s="47"/>
+      <c r="F231" s="47"/>
+      <c r="G231" s="47"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="43"/>
+      <c r="B232" s="44"/>
+      <c r="C232" s="45"/>
+      <c r="D232" s="46"/>
+      <c r="E232" s="47"/>
+      <c r="F232" s="47"/>
+      <c r="G232" s="47"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="43"/>
+      <c r="B233" s="44"/>
+      <c r="C233" s="45"/>
+      <c r="D233" s="46"/>
+      <c r="E233" s="47"/>
+      <c r="F233" s="47"/>
+      <c r="G233" s="47"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="43"/>
+      <c r="B234" s="44"/>
+      <c r="C234" s="45"/>
+      <c r="D234" s="46"/>
+      <c r="E234" s="47"/>
+      <c r="F234" s="47"/>
+      <c r="G234" s="47"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="43"/>
+      <c r="B235" s="44"/>
+      <c r="C235" s="45"/>
+      <c r="D235" s="46"/>
+      <c r="E235" s="47"/>
+      <c r="F235" s="47"/>
+      <c r="G235" s="47"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="43"/>
+      <c r="B236" s="44"/>
+      <c r="C236" s="45"/>
+      <c r="D236" s="46"/>
+      <c r="E236" s="47"/>
+      <c r="F236" s="47"/>
+      <c r="G236" s="47"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="43"/>
+      <c r="B237" s="44"/>
+      <c r="C237" s="45"/>
+      <c r="D237" s="46"/>
+      <c r="E237" s="47"/>
+      <c r="F237" s="47"/>
+      <c r="G237" s="47"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="43"/>
+      <c r="B238" s="44"/>
+      <c r="C238" s="45"/>
+      <c r="D238" s="46"/>
+      <c r="E238" s="47"/>
+      <c r="F238" s="47"/>
+      <c r="G238" s="47"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="43"/>
+      <c r="B239" s="44"/>
+      <c r="C239" s="45"/>
+      <c r="D239" s="46"/>
+      <c r="E239" s="47"/>
+      <c r="F239" s="47"/>
+      <c r="G239" s="47"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="43"/>
+      <c r="B240" s="44"/>
+      <c r="C240" s="45"/>
+      <c r="D240" s="46"/>
+      <c r="E240" s="47"/>
+      <c r="F240" s="47"/>
+      <c r="G240" s="47"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="43"/>
+      <c r="B241" s="44"/>
+      <c r="C241" s="45"/>
+      <c r="D241" s="46"/>
+      <c r="E241" s="47"/>
+      <c r="F241" s="47"/>
+      <c r="G241" s="47"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="43"/>
+      <c r="B242" s="44"/>
+      <c r="C242" s="45"/>
+      <c r="D242" s="46"/>
+      <c r="E242" s="47"/>
+      <c r="F242" s="47"/>
+      <c r="G242" s="47"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="48"/>
+      <c r="B243" s="49"/>
+      <c r="C243" s="50"/>
+      <c r="D243" s="51"/>
+      <c r="E243" s="52"/>
+      <c r="F243" s="52"/>
+      <c r="G243" s="52"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="48"/>
+      <c r="B244" s="49"/>
+      <c r="C244" s="50"/>
+      <c r="D244" s="51"/>
+      <c r="E244" s="52"/>
+      <c r="F244" s="52"/>
+      <c r="G244" s="52"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="48"/>
+      <c r="B245" s="49"/>
+      <c r="C245" s="50"/>
+      <c r="D245" s="51"/>
+      <c r="E245" s="52"/>
+      <c r="F245" s="52"/>
+      <c r="G245" s="52"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="48"/>
+      <c r="B246" s="49"/>
+      <c r="C246" s="50"/>
+      <c r="D246" s="51"/>
+      <c r="E246" s="52"/>
+      <c r="F246" s="52"/>
+      <c r="G246" s="52"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="48"/>
+      <c r="B247" s="49"/>
+      <c r="C247" s="50"/>
+      <c r="D247" s="51"/>
+      <c r="E247" s="52"/>
+      <c r="F247" s="52"/>
+      <c r="G247" s="52"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="48"/>
+      <c r="B248" s="49"/>
+      <c r="C248" s="50"/>
+      <c r="D248" s="51"/>
+      <c r="E248" s="52"/>
+      <c r="F248" s="52"/>
+      <c r="G248" s="52"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="48"/>
+      <c r="B249" s="49"/>
+      <c r="C249" s="50"/>
+      <c r="D249" s="51"/>
+      <c r="E249" s="52"/>
+      <c r="F249" s="52"/>
+      <c r="G249" s="52"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="48"/>
+      <c r="B250" s="49"/>
+      <c r="C250" s="50"/>
+      <c r="D250" s="51"/>
+      <c r="E250" s="52"/>
+      <c r="F250" s="52"/>
+      <c r="G250" s="52"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="48"/>
+      <c r="B251" s="49"/>
+      <c r="C251" s="50"/>
+      <c r="D251" s="51"/>
+      <c r="E251" s="52"/>
+      <c r="F251" s="52"/>
+      <c r="G251" s="52"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="48"/>
+      <c r="B252" s="49"/>
+      <c r="C252" s="50"/>
+      <c r="D252" s="51"/>
+      <c r="E252" s="52"/>
+      <c r="F252" s="52"/>
+      <c r="G252" s="52"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="48"/>
+      <c r="B253" s="49"/>
+      <c r="C253" s="50"/>
+      <c r="D253" s="51"/>
+      <c r="E253" s="52"/>
+      <c r="F253" s="52"/>
+      <c r="G253" s="52"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="48"/>
+      <c r="B254" s="49"/>
+      <c r="C254" s="50"/>
+      <c r="D254" s="51"/>
+      <c r="E254" s="52"/>
+      <c r="F254" s="52"/>
+      <c r="G254" s="52"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="48"/>
+      <c r="B255" s="49"/>
+      <c r="C255" s="50"/>
+      <c r="D255" s="51"/>
+      <c r="E255" s="52"/>
+      <c r="F255" s="52"/>
+      <c r="G255" s="52"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="48"/>
+      <c r="B256" s="49"/>
+      <c r="C256" s="50"/>
+      <c r="D256" s="51"/>
+      <c r="E256" s="52"/>
+      <c r="F256" s="52"/>
+      <c r="G256" s="52"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="48"/>
+      <c r="B257" s="49"/>
+      <c r="C257" s="50"/>
+      <c r="D257" s="51"/>
+      <c r="E257" s="52"/>
+      <c r="F257" s="52"/>
+      <c r="G257" s="52"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="48"/>
+      <c r="B258" s="49"/>
+      <c r="C258" s="50"/>
+      <c r="D258" s="51"/>
+      <c r="E258" s="52"/>
+      <c r="F258" s="52"/>
+      <c r="G258" s="52"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="48"/>
+      <c r="B259" s="49"/>
+      <c r="C259" s="50"/>
+      <c r="D259" s="51"/>
+      <c r="E259" s="52"/>
+      <c r="F259" s="52"/>
+      <c r="G259" s="52"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="48"/>
+      <c r="B260" s="49"/>
+      <c r="C260" s="50"/>
+      <c r="D260" s="51"/>
+      <c r="E260" s="52"/>
+      <c r="F260" s="52"/>
+      <c r="G260" s="52"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="48"/>
+      <c r="B261" s="49"/>
+      <c r="C261" s="50"/>
+      <c r="D261" s="51"/>
+      <c r="E261" s="52"/>
+      <c r="F261" s="52"/>
+      <c r="G261" s="52"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="48"/>
+      <c r="B262" s="49"/>
+      <c r="C262" s="50"/>
+      <c r="D262" s="51"/>
+      <c r="E262" s="52"/>
+      <c r="F262" s="52"/>
+      <c r="G262" s="52"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="48"/>
+      <c r="B263" s="49"/>
+      <c r="C263" s="50"/>
+      <c r="D263" s="51"/>
+      <c r="E263" s="52"/>
+      <c r="F263" s="52"/>
+      <c r="G263" s="52"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="48"/>
+      <c r="B264" s="49"/>
+      <c r="C264" s="50"/>
+      <c r="D264" s="51"/>
+      <c r="E264" s="52"/>
+      <c r="F264" s="52"/>
+      <c r="G264" s="52"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="48"/>
+      <c r="B265" s="49"/>
+      <c r="C265" s="50"/>
+      <c r="D265" s="51"/>
+      <c r="E265" s="52"/>
+      <c r="F265" s="52"/>
+      <c r="G265" s="52"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="48"/>
+      <c r="B266" s="49"/>
+      <c r="C266" s="50"/>
+      <c r="D266" s="51"/>
+      <c r="E266" s="52"/>
+      <c r="F266" s="52"/>
+      <c r="G266" s="52"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="48"/>
+      <c r="B267" s="49"/>
+      <c r="C267" s="50"/>
+      <c r="D267" s="51"/>
+      <c r="E267" s="52"/>
+      <c r="F267" s="52"/>
+      <c r="G267" s="52"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="48"/>
+      <c r="B268" s="49"/>
+      <c r="C268" s="50"/>
+      <c r="D268" s="51"/>
+      <c r="E268" s="52"/>
+      <c r="F268" s="52"/>
+      <c r="G268" s="52"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="48"/>
+      <c r="B269" s="49"/>
+      <c r="C269" s="50"/>
+      <c r="D269" s="51"/>
+      <c r="E269" s="52"/>
+      <c r="F269" s="52"/>
+      <c r="G269" s="52"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="48"/>
+      <c r="B270" s="49"/>
+      <c r="C270" s="50"/>
+      <c r="D270" s="51"/>
+      <c r="E270" s="52"/>
+      <c r="F270" s="52"/>
+      <c r="G270" s="52"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="48"/>
+      <c r="B271" s="49"/>
+      <c r="C271" s="50"/>
+      <c r="D271" s="51"/>
+      <c r="E271" s="52"/>
+      <c r="F271" s="52"/>
+      <c r="G271" s="52"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="48"/>
+      <c r="B272" s="49"/>
+      <c r="C272" s="50"/>
+      <c r="D272" s="51"/>
+      <c r="E272" s="52"/>
+      <c r="F272" s="52"/>
+      <c r="G272" s="52"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="48"/>
+      <c r="B273" s="49"/>
+      <c r="C273" s="50"/>
+      <c r="D273" s="51"/>
+      <c r="E273" s="52"/>
+      <c r="F273" s="52"/>
+      <c r="G273" s="52"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="48"/>
+      <c r="B274" s="49"/>
+      <c r="C274" s="50"/>
+      <c r="D274" s="51"/>
+      <c r="E274" s="52"/>
+      <c r="F274" s="52"/>
+      <c r="G274" s="52"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="48"/>
+      <c r="B275" s="49"/>
+      <c r="C275" s="50"/>
+      <c r="D275" s="51"/>
+      <c r="E275" s="52"/>
+      <c r="F275" s="52"/>
+      <c r="G275" s="52"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="48"/>
+      <c r="B276" s="49"/>
+      <c r="C276" s="50"/>
+      <c r="D276" s="51"/>
+      <c r="E276" s="52"/>
+      <c r="F276" s="52"/>
+      <c r="G276" s="52"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="48"/>
+      <c r="B277" s="49"/>
+      <c r="C277" s="50"/>
+      <c r="D277" s="51"/>
+      <c r="E277" s="52"/>
+      <c r="F277" s="52"/>
+      <c r="G277" s="52"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="48"/>
+      <c r="B278" s="49"/>
+      <c r="C278" s="50"/>
+      <c r="D278" s="51"/>
+      <c r="E278" s="52"/>
+      <c r="F278" s="52"/>
+      <c r="G278" s="52"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="48"/>
+      <c r="B279" s="49"/>
+      <c r="C279" s="50"/>
+      <c r="D279" s="51"/>
+      <c r="E279" s="52"/>
+      <c r="F279" s="52"/>
+      <c r="G279" s="52"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="48"/>
+      <c r="B280" s="49"/>
+      <c r="C280" s="50"/>
+      <c r="D280" s="51"/>
+      <c r="E280" s="52"/>
+      <c r="F280" s="52"/>
+      <c r="G280" s="52"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="48"/>
+      <c r="B281" s="49"/>
+      <c r="C281" s="50"/>
+      <c r="D281" s="51"/>
+      <c r="E281" s="52"/>
+      <c r="F281" s="52"/>
+      <c r="G281" s="52"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="48"/>
+      <c r="B282" s="49"/>
+      <c r="C282" s="50"/>
+      <c r="D282" s="51"/>
+      <c r="E282" s="52"/>
+      <c r="F282" s="52"/>
+      <c r="G282" s="52"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="48"/>
+      <c r="B283" s="49"/>
+      <c r="C283" s="50"/>
+      <c r="D283" s="51"/>
+      <c r="E283" s="52"/>
+      <c r="F283" s="52"/>
+      <c r="G283" s="52"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="48"/>
+      <c r="B284" s="49"/>
+      <c r="C284" s="50"/>
+      <c r="D284" s="51"/>
+      <c r="E284" s="52"/>
+      <c r="F284" s="52"/>
+      <c r="G284" s="52"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="48"/>
+      <c r="B285" s="49"/>
+      <c r="C285" s="50"/>
+      <c r="D285" s="51"/>
+      <c r="E285" s="52"/>
+      <c r="F285" s="52"/>
+      <c r="G285" s="52"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="48"/>
+      <c r="B286" s="49"/>
+      <c r="C286" s="50"/>
+      <c r="D286" s="51"/>
+      <c r="E286" s="52"/>
+      <c r="F286" s="52"/>
+      <c r="G286" s="52"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="48"/>
+      <c r="B287" s="49"/>
+      <c r="C287" s="50"/>
+      <c r="D287" s="51"/>
+      <c r="E287" s="52"/>
+      <c r="F287" s="52"/>
+      <c r="G287" s="52"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="48"/>
+      <c r="B288" s="49"/>
+      <c r="C288" s="50"/>
+      <c r="D288" s="51"/>
+      <c r="E288" s="52"/>
+      <c r="F288" s="52"/>
+      <c r="G288" s="52"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="48"/>
+      <c r="B289" s="49"/>
+      <c r="C289" s="50"/>
+      <c r="D289" s="51"/>
+      <c r="E289" s="52"/>
+      <c r="F289" s="52"/>
+      <c r="G289" s="52"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="48"/>
+      <c r="B290" s="49"/>
+      <c r="C290" s="50"/>
+      <c r="D290" s="51"/>
+      <c r="E290" s="52"/>
+      <c r="F290" s="52"/>
+      <c r="G290" s="52"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="48"/>
+      <c r="B291" s="49"/>
+      <c r="C291" s="50"/>
+      <c r="D291" s="51"/>
+      <c r="E291" s="52"/>
+      <c r="F291" s="52"/>
+      <c r="G291" s="52"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="48"/>
+      <c r="B292" s="49"/>
+      <c r="C292" s="50"/>
+      <c r="D292" s="51"/>
+      <c r="E292" s="52"/>
+      <c r="F292" s="52"/>
+      <c r="G292" s="52"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="48"/>
+      <c r="B293" s="49"/>
+      <c r="C293" s="50"/>
+      <c r="D293" s="51"/>
+      <c r="E293" s="52"/>
+      <c r="F293" s="52"/>
+      <c r="G293" s="52"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="48"/>
+      <c r="B294" s="49"/>
+      <c r="C294" s="50"/>
+      <c r="D294" s="51"/>
+      <c r="E294" s="52"/>
+      <c r="F294" s="52"/>
+      <c r="G294" s="52"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="48"/>
+      <c r="B295" s="49"/>
+      <c r="C295" s="50"/>
+      <c r="D295" s="51"/>
+      <c r="E295" s="52"/>
+      <c r="F295" s="52"/>
+      <c r="G295" s="52"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="48"/>
+      <c r="B296" s="49"/>
+      <c r="C296" s="50"/>
+      <c r="D296" s="51"/>
+      <c r="E296" s="52"/>
+      <c r="F296" s="52"/>
+      <c r="G296" s="52"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="48"/>
+      <c r="B297" s="49"/>
+      <c r="C297" s="50"/>
+      <c r="D297" s="51"/>
+      <c r="E297" s="52"/>
+      <c r="F297" s="52"/>
+      <c r="G297" s="52"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="48"/>
+      <c r="B298" s="49"/>
+      <c r="C298" s="50"/>
+      <c r="D298" s="51"/>
+      <c r="E298" s="52"/>
+      <c r="F298" s="52"/>
+      <c r="G298" s="52"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="48"/>
+      <c r="B299" s="49"/>
+      <c r="C299" s="50"/>
+      <c r="D299" s="51"/>
+      <c r="E299" s="52"/>
+      <c r="F299" s="52"/>
+      <c r="G299" s="52"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="48"/>
+      <c r="B300" s="49"/>
+      <c r="C300" s="50"/>
+      <c r="D300" s="51"/>
+      <c r="E300" s="52"/>
+      <c r="F300" s="52"/>
+      <c r="G300" s="52"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="48"/>
+      <c r="B301" s="49"/>
+      <c r="C301" s="50"/>
+      <c r="D301" s="51"/>
+      <c r="E301" s="52"/>
+      <c r="F301" s="52"/>
+      <c r="G301" s="52"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="48"/>
+      <c r="B302" s="49"/>
+      <c r="C302" s="50"/>
+      <c r="D302" s="51"/>
+      <c r="E302" s="52"/>
+      <c r="F302" s="52"/>
+      <c r="G302" s="52"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="48"/>
+      <c r="B303" s="49"/>
+      <c r="C303" s="50"/>
+      <c r="D303" s="51"/>
+      <c r="E303" s="52"/>
+      <c r="F303" s="52"/>
+      <c r="G303" s="52"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="48"/>
+      <c r="B304" s="49"/>
+      <c r="C304" s="50"/>
+      <c r="D304" s="51"/>
+      <c r="E304" s="52"/>
+      <c r="F304" s="52"/>
+      <c r="G304" s="52"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="48"/>
+      <c r="B305" s="49"/>
+      <c r="C305" s="50"/>
+      <c r="D305" s="51"/>
+      <c r="E305" s="52"/>
+      <c r="F305" s="52"/>
+      <c r="G305" s="52"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="48"/>
+      <c r="B306" s="49"/>
+      <c r="C306" s="50"/>
+      <c r="D306" s="51"/>
+      <c r="E306" s="52"/>
+      <c r="F306" s="52"/>
+      <c r="G306" s="52"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="48"/>
+      <c r="B307" s="49"/>
+      <c r="C307" s="50"/>
+      <c r="D307" s="51"/>
+      <c r="E307" s="52"/>
+      <c r="F307" s="52"/>
+      <c r="G307" s="52"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="48"/>
+      <c r="B308" s="49"/>
+      <c r="C308" s="50"/>
+      <c r="D308" s="51"/>
+      <c r="E308" s="52"/>
+      <c r="F308" s="52"/>
+      <c r="G308" s="52"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="48"/>
+      <c r="B309" s="49"/>
+      <c r="C309" s="50"/>
+      <c r="D309" s="51"/>
+      <c r="E309" s="52"/>
+      <c r="F309" s="52"/>
+      <c r="G309" s="52"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="48"/>
+      <c r="B310" s="49"/>
+      <c r="C310" s="50"/>
+      <c r="D310" s="51"/>
+      <c r="E310" s="52"/>
+      <c r="F310" s="52"/>
+      <c r="G310" s="52"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="48"/>
+      <c r="B311" s="49"/>
+      <c r="C311" s="50"/>
+      <c r="D311" s="51"/>
+      <c r="E311" s="52"/>
+      <c r="F311" s="52"/>
+      <c r="G311" s="52"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="48"/>
+      <c r="B312" s="49"/>
+      <c r="C312" s="50"/>
+      <c r="D312" s="51"/>
+      <c r="E312" s="52"/>
+      <c r="F312" s="52"/>
+      <c r="G312" s="52"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="48"/>
+      <c r="B313" s="49"/>
+      <c r="C313" s="50"/>
+      <c r="D313" s="51"/>
+      <c r="E313" s="52"/>
+      <c r="F313" s="52"/>
+      <c r="G313" s="52"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="48"/>
+      <c r="B314" s="49"/>
+      <c r="C314" s="50"/>
+      <c r="D314" s="51"/>
+      <c r="E314" s="52"/>
+      <c r="F314" s="52"/>
+      <c r="G314" s="52"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="48"/>
+      <c r="B315" s="49"/>
+      <c r="C315" s="50"/>
+      <c r="D315" s="51"/>
+      <c r="E315" s="52"/>
+      <c r="F315" s="52"/>
+      <c r="G315" s="52"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="48"/>
+      <c r="B316" s="49"/>
+      <c r="C316" s="50"/>
+      <c r="D316" s="51"/>
+      <c r="E316" s="52"/>
+      <c r="F316" s="52"/>
+      <c r="G316" s="52"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="48"/>
+      <c r="B317" s="49"/>
+      <c r="C317" s="50"/>
+      <c r="D317" s="51"/>
+      <c r="E317" s="52"/>
+      <c r="F317" s="52"/>
+      <c r="G317" s="52"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="48"/>
+      <c r="B318" s="49"/>
+      <c r="C318" s="50"/>
+      <c r="D318" s="51"/>
+      <c r="E318" s="52"/>
+      <c r="F318" s="52"/>
+      <c r="G318" s="52"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="48"/>
+      <c r="B319" s="49"/>
+      <c r="C319" s="50"/>
+      <c r="D319" s="51"/>
+      <c r="E319" s="52"/>
+      <c r="F319" s="52"/>
+      <c r="G319" s="52"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="48"/>
+      <c r="B320" s="49"/>
+      <c r="C320" s="50"/>
+      <c r="D320" s="51"/>
+      <c r="E320" s="52"/>
+      <c r="F320" s="52"/>
+      <c r="G320" s="52"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="48"/>
+      <c r="B321" s="49"/>
+      <c r="C321" s="50"/>
+      <c r="D321" s="51"/>
+      <c r="E321" s="52"/>
+      <c r="F321" s="52"/>
+      <c r="G321" s="52"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="48"/>
+      <c r="B322" s="49"/>
+      <c r="C322" s="50"/>
+      <c r="D322" s="51"/>
+      <c r="E322" s="52"/>
+      <c r="F322" s="52"/>
+      <c r="G322" s="52"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="48"/>
+      <c r="B323" s="49"/>
+      <c r="C323" s="50"/>
+      <c r="D323" s="51"/>
+      <c r="E323" s="52"/>
+      <c r="F323" s="52"/>
+      <c r="G323" s="52"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="48"/>
+      <c r="B324" s="49"/>
+      <c r="C324" s="50"/>
+      <c r="D324" s="51"/>
+      <c r="E324" s="52"/>
+      <c r="F324" s="52"/>
+      <c r="G324" s="52"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="48"/>
+      <c r="B325" s="49"/>
+      <c r="C325" s="50"/>
+      <c r="D325" s="51"/>
+      <c r="E325" s="52"/>
+      <c r="F325" s="52"/>
+      <c r="G325" s="52"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="48"/>
+      <c r="B326" s="49"/>
+      <c r="C326" s="50"/>
+      <c r="D326" s="51"/>
+      <c r="E326" s="52"/>
+      <c r="F326" s="52"/>
+      <c r="G326" s="52"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="48"/>
+      <c r="B327" s="49"/>
+      <c r="C327" s="50"/>
+      <c r="D327" s="51"/>
+      <c r="E327" s="52"/>
+      <c r="F327" s="52"/>
+      <c r="G327" s="52"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="48"/>
+      <c r="B328" s="49"/>
+      <c r="C328" s="50"/>
+      <c r="D328" s="51"/>
+      <c r="E328" s="52"/>
+      <c r="F328" s="52"/>
+      <c r="G328" s="52"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="48"/>
+      <c r="B329" s="49"/>
+      <c r="C329" s="50"/>
+      <c r="D329" s="51"/>
+      <c r="E329" s="52"/>
+      <c r="F329" s="52"/>
+      <c r="G329" s="52"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="48"/>
+      <c r="B330" s="49"/>
+      <c r="C330" s="50"/>
+      <c r="D330" s="51"/>
+      <c r="E330" s="52"/>
+      <c r="F330" s="52"/>
+      <c r="G330" s="52"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="48"/>
+      <c r="B331" s="49"/>
+      <c r="C331" s="50"/>
+      <c r="D331" s="51"/>
+      <c r="E331" s="52"/>
+      <c r="F331" s="52"/>
+      <c r="G331" s="52"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="48"/>
+      <c r="B332" s="49"/>
+      <c r="C332" s="50"/>
+      <c r="D332" s="51"/>
+      <c r="E332" s="52"/>
+      <c r="F332" s="52"/>
+      <c r="G332" s="52"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="48"/>
+      <c r="B333" s="49"/>
+      <c r="C333" s="50"/>
+      <c r="D333" s="51"/>
+      <c r="E333" s="52"/>
+      <c r="F333" s="52"/>
+      <c r="G333" s="52"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="48"/>
+      <c r="B334" s="49"/>
+      <c r="C334" s="50"/>
+      <c r="D334" s="51"/>
+      <c r="E334" s="52"/>
+      <c r="F334" s="52"/>
+      <c r="G334" s="52"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="48"/>
+      <c r="B335" s="49"/>
+      <c r="C335" s="50"/>
+      <c r="D335" s="51"/>
+      <c r="E335" s="52"/>
+      <c r="F335" s="52"/>
+      <c r="G335" s="52"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="48"/>
+      <c r="B336" s="49"/>
+      <c r="C336" s="50"/>
+      <c r="D336" s="51"/>
+      <c r="E336" s="52"/>
+      <c r="F336" s="52"/>
+      <c r="G336" s="52"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="48"/>
+      <c r="B337" s="49"/>
+      <c r="C337" s="50"/>
+      <c r="D337" s="51"/>
+      <c r="E337" s="52"/>
+      <c r="F337" s="52"/>
+      <c r="G337" s="52"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="48"/>
+      <c r="B338" s="49"/>
+      <c r="C338" s="50"/>
+      <c r="D338" s="51"/>
+      <c r="E338" s="52"/>
+      <c r="F338" s="52"/>
+      <c r="G338" s="52"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="48"/>
+      <c r="B339" s="49"/>
+      <c r="C339" s="50"/>
+      <c r="D339" s="51"/>
+      <c r="E339" s="52"/>
+      <c r="F339" s="52"/>
+      <c r="G339" s="52"/>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="48"/>
+      <c r="B340" s="49"/>
+      <c r="C340" s="50"/>
+      <c r="D340" s="51"/>
+      <c r="E340" s="52"/>
+      <c r="F340" s="52"/>
+      <c r="G340" s="52"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="48"/>
+      <c r="B341" s="49"/>
+      <c r="C341" s="50"/>
+      <c r="D341" s="51"/>
+      <c r="E341" s="52"/>
+      <c r="F341" s="52"/>
+      <c r="G341" s="52"/>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="48"/>
+      <c r="B342" s="49"/>
+      <c r="C342" s="50"/>
+      <c r="D342" s="51"/>
+      <c r="E342" s="52"/>
+      <c r="F342" s="52"/>
+      <c r="G342" s="52"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="48"/>
+      <c r="B343" s="49"/>
+      <c r="C343" s="50"/>
+      <c r="D343" s="51"/>
+      <c r="E343" s="52"/>
+      <c r="F343" s="52"/>
+      <c r="G343" s="52"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="48"/>
+      <c r="B344" s="49"/>
+      <c r="C344" s="50"/>
+      <c r="D344" s="51"/>
+      <c r="E344" s="52"/>
+      <c r="F344" s="52"/>
+      <c r="G344" s="52"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="48"/>
+      <c r="B345" s="49"/>
+      <c r="C345" s="50"/>
+      <c r="D345" s="51"/>
+      <c r="E345" s="52"/>
+      <c r="F345" s="52"/>
+      <c r="G345" s="52"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="48"/>
+      <c r="B346" s="49"/>
+      <c r="C346" s="50"/>
+      <c r="D346" s="51"/>
+      <c r="E346" s="52"/>
+      <c r="F346" s="52"/>
+      <c r="G346" s="52"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="48"/>
+      <c r="B347" s="49"/>
+      <c r="C347" s="50"/>
+      <c r="D347" s="51"/>
+      <c r="E347" s="52"/>
+      <c r="F347" s="52"/>
+      <c r="G347" s="52"/>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="48"/>
+      <c r="B348" s="49"/>
+      <c r="C348" s="50"/>
+      <c r="D348" s="51"/>
+      <c r="E348" s="52"/>
+      <c r="F348" s="52"/>
+      <c r="G348" s="52"/>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="48"/>
+      <c r="B349" s="49"/>
+      <c r="C349" s="50"/>
+      <c r="D349" s="51"/>
+      <c r="E349" s="52"/>
+      <c r="F349" s="52"/>
+      <c r="G349" s="52"/>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="48"/>
+      <c r="B350" s="49"/>
+      <c r="C350" s="50"/>
+      <c r="D350" s="51"/>
+      <c r="E350" s="52"/>
+      <c r="F350" s="52"/>
+      <c r="G350" s="52"/>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="48"/>
+      <c r="B351" s="49"/>
+      <c r="C351" s="50"/>
+      <c r="D351" s="51"/>
+      <c r="E351" s="52"/>
+      <c r="F351" s="52"/>
+      <c r="G351" s="52"/>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="48"/>
+      <c r="B352" s="49"/>
+      <c r="C352" s="50"/>
+      <c r="D352" s="51"/>
+      <c r="E352" s="52"/>
+      <c r="F352" s="52"/>
+      <c r="G352" s="52"/>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.25">
       <c r="A1048576" s="7" t="s">
@@ -1970,17 +4713,42 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
+  <mergeCells count="57">
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1993,39 +4761,16 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC14EC9-2582-43B2-8E29-114BB02AA2F7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
   <si>
     <t>Personne</t>
   </si>
@@ -376,12 +375,15 @@
   </si>
   <si>
     <t>Terminé, reste a changer le statut lorsqu'on accepte une demande et à supprimer la demande</t>
+  </si>
+  <si>
+    <t>Affichage discussion, suppression demandes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -743,6 +745,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -750,60 +806,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1084,11 +1086,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57:G57"/>
+      <selection activeCell="E60" sqref="E60:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1104,29 +1106,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1142,11 +1144,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1161,11 +1163,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1854,9 +1856,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="50"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1867,9 +1869,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="47"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="56"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1880,9 +1882,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="47"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="56"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1893,11 +1895,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="45" t="s">
+      <c r="E47" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="56"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1908,9 +1910,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="47"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1923,9 +1925,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="56"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -1940,11 +1942,11 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="46"/>
-      <c r="G50" s="47"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="56"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -1959,9 +1961,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="47"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="56"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -1972,11 +1974,11 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="47"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="56"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -1989,9 +1991,9 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="47"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="56"/>
     </row>
     <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -2004,9 +2006,9 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="47"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="56"/>
     </row>
     <row r="55" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
@@ -2053,9 +2055,9 @@
       <c r="D57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="41"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="59"/>
     </row>
     <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
@@ -2068,11 +2070,11 @@
       <c r="D58" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="E58" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="40"/>
-      <c r="G58" s="41"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="59"/>
     </row>
     <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
@@ -2085,20 +2087,26 @@
       <c r="D59" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="57" t="s">
+      <c r="E59" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="58"/>
-      <c r="G59" s="59"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F59" s="40"/>
+      <c r="G59" s="41"/>
+    </row>
+    <row r="60" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
+      <c r="B60" s="38">
+        <v>43175</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="57"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="59"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
@@ -4737,7 +4745,50 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="59">
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
     <mergeCell ref="E59:G59"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E4:G4"/>
@@ -4754,48 +4805,6 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="122">
   <si>
     <t>Personne</t>
   </si>
@@ -378,6 +378,18 @@
   </si>
   <si>
     <t>Affichage discussion, suppression demandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No overload for "methode" matches delegate 'ElapsedEventHandler' </t>
+  </si>
+  <si>
+    <t>Ajouter un message ds la BD</t>
+  </si>
+  <si>
+    <t>25min</t>
+  </si>
+  <si>
+    <t>Creation d'un timer pour l'actualisation des messages envoyés</t>
   </si>
 </sst>
 </file>
@@ -745,6 +757,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -753,15 +801,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -779,33 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60:G60"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1106,29 +1118,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1144,11 +1156,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1163,11 +1175,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1856,9 +1868,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1869,9 +1881,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="56"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1882,9 +1894,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="56"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1895,11 +1907,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="54" t="s">
+      <c r="E47" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="55"/>
-      <c r="G47" s="56"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1910,9 +1922,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="56"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1925,9 +1937,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="56"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -1942,11 +1954,11 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="56"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -1961,9 +1973,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="56"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="47"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -1974,11 +1986,11 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="54" t="s">
+      <c r="E52" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="55"/>
-      <c r="G52" s="56"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="47"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -1991,9 +2003,9 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="47"/>
     </row>
     <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -2006,9 +2018,9 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="56"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="47"/>
     </row>
     <row r="55" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
@@ -2055,9 +2067,9 @@
       <c r="D57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="57"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="59"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
     </row>
     <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
@@ -2070,11 +2082,11 @@
       <c r="D58" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="57" t="s">
+      <c r="E58" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="58"/>
-      <c r="G58" s="59"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="41"/>
     </row>
     <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
@@ -2087,11 +2099,11 @@
       <c r="D59" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="41"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="53"/>
     </row>
     <row r="60" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
@@ -2104,27 +2116,39 @@
       <c r="D60" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="57"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="59"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="41"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="38">
+        <v>43178</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="39"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="41"/>
+    </row>
+    <row r="62" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
       <c r="B62" s="29"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
+      <c r="C62" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="40"/>
+      <c r="G62" s="41"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
@@ -4745,32 +4769,28 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
+  <mergeCells count="61">
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E34:G34"/>
@@ -4784,27 +4804,33 @@
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="E32:G32"/>
     <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
     <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
   <si>
     <t>Personne</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>Creation d'un timer pour l'actualisation des messages envoyés</t>
+  </si>
+  <si>
+    <t>Afficher les messages lors d'une discussion/afficher les nouveaux messages</t>
+  </si>
+  <si>
+    <t>Résolution du bug ci-dessus. L'affichage des messages focntionne pour une conversation mais pas pour une autre ??</t>
   </si>
 </sst>
 </file>
@@ -774,6 +780,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,15 +816,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -799,24 +823,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1102,7 +1108,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61:G61"/>
+      <selection activeCell="D62" activeCellId="1" sqref="E63:G63 D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1118,29 +1124,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1156,11 +1162,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1175,11 +1181,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1868,9 +1874,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="50"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1881,9 +1887,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="47"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="56"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1894,9 +1900,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="47"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="56"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1907,11 +1913,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="45" t="s">
+      <c r="E47" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="56"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1922,9 +1928,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="47"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1937,9 +1943,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="56"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -1954,11 +1960,11 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="46"/>
-      <c r="G50" s="47"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="56"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -1973,9 +1979,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="47"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="56"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -1986,11 +1992,11 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="47"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="56"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -2003,9 +2009,9 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="47"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="56"/>
     </row>
     <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -2018,9 +2024,9 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="47"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="56"/>
     </row>
     <row r="55" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
@@ -2099,11 +2105,11 @@
       <c r="D59" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="51" t="s">
+      <c r="E59" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="59"/>
     </row>
     <row r="60" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
@@ -2150,14 +2156,22 @@
       <c r="F62" s="40"/>
       <c r="G62" s="41"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
+      <c r="B63" s="38">
+        <v>43151</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="58"/>
+      <c r="G63" s="59"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
@@ -4769,13 +4783,43 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E61:G61"/>
+  <mergeCells count="62">
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="A1:C2"/>
@@ -4786,6 +4830,12 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E61:G61"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
@@ -4796,41 +4846,6 @@
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E59:G59"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="128">
   <si>
     <t>Personne</t>
   </si>
@@ -396,6 +396,18 @@
   </si>
   <si>
     <t>Résolution du bug ci-dessus. L'affichage des messages focntionne pour une conversation mais pas pour une autre ??</t>
+  </si>
+  <si>
+    <t>Resolution d'un bug ou les messages ne s'affichaient pas en entier</t>
+  </si>
+  <si>
+    <t>Ajout/Suppresion de membres dans la discussion</t>
+  </si>
+  <si>
+    <t>Archivage des discussions</t>
+  </si>
+  <si>
+    <t>Reste a pouvoir les reimporter</t>
   </si>
 </sst>
 </file>
@@ -763,6 +775,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,6 +801,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -796,33 +835,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1107,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="D62" activeCellId="1" sqref="E63:G63 D62"/>
+    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66:G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1124,29 +1136,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1162,11 +1174,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1181,11 +1193,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1200,11 +1212,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1219,11 +1231,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1238,11 +1250,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1257,11 +1269,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1276,11 +1288,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1295,11 +1307,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1317,11 +1329,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1336,11 +1348,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1355,11 +1367,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1372,11 +1384,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1389,11 +1401,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1406,11 +1418,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1423,11 +1435,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1440,11 +1452,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1457,11 +1469,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1474,11 +1486,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1491,9 +1503,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1506,9 +1518,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1521,9 +1533,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1536,11 +1548,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1553,9 +1565,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1568,9 +1580,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1581,9 +1593,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1594,9 +1606,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1611,11 +1623,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1630,11 +1642,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1647,11 +1659,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1662,11 +1674,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1678,9 +1690,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="44"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1694,11 +1706,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1714,11 +1726,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1729,9 +1741,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1744,11 +1756,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="44"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1763,11 +1775,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1780,11 +1792,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1799,11 +1811,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1818,11 +1830,11 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
@@ -1847,11 +1859,11 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
@@ -1887,9 +1899,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="56"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1900,9 +1912,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="56"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1913,11 +1925,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="54" t="s">
+      <c r="E47" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="55"/>
-      <c r="G47" s="56"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1928,9 +1940,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="56"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1943,9 +1955,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="56"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -1960,11 +1972,11 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="56"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -1979,9 +1991,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="56"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -1992,11 +2004,11 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="54" t="s">
+      <c r="E52" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="55"/>
-      <c r="G52" s="56"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="50"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -2009,9 +2021,9 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50"/>
     </row>
     <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -2024,9 +2036,9 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="56"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="50"/>
     </row>
     <row r="55" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
@@ -2041,11 +2053,11 @@
       <c r="D55" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="43"/>
-      <c r="G55" s="44"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
@@ -2058,11 +2070,11 @@
       <c r="D56" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="44"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
@@ -2073,9 +2085,9 @@
       <c r="D57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="41"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="44"/>
     </row>
     <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
@@ -2088,11 +2100,11 @@
       <c r="D58" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="E58" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="40"/>
-      <c r="G58" s="41"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="44"/>
     </row>
     <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
@@ -2105,11 +2117,11 @@
       <c r="D59" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="57" t="s">
+      <c r="E59" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="58"/>
-      <c r="G59" s="59"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="41"/>
     </row>
     <row r="60" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
@@ -2122,9 +2134,9 @@
       <c r="D60" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="41"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="44"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
@@ -2137,9 +2149,9 @@
       <c r="D61" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="41"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="44"/>
     </row>
     <row r="62" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
@@ -2150,11 +2162,11 @@
       <c r="D62" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E62" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="40"/>
-      <c r="G62" s="41"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="44"/>
     </row>
     <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
@@ -2167,38 +2179,54 @@
       <c r="D63" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="57" t="s">
+      <c r="E63" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="F63" s="58"/>
-      <c r="G63" s="59"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
+    </row>
+    <row r="64" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="38">
+        <v>43153</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" s="39"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="41"/>
+    </row>
+    <row r="65" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
       <c r="B65" s="29"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
+      <c r="C65" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="39"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="41"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
       <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
+      <c r="C66" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" s="40"/>
+      <c r="G66" s="41"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
@@ -4783,54 +4811,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E62:G62"/>
+  <mergeCells count="65">
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
@@ -4846,6 +4830,53 @@
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E62:G62"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="131">
   <si>
     <t>Personne</t>
   </si>
@@ -408,6 +408,15 @@
   </si>
   <si>
     <t>Reste a pouvoir les reimporter</t>
+  </si>
+  <si>
+    <t>Reimporter les discussion</t>
+  </si>
+  <si>
+    <t>Test de chat avec plusieurs clients.</t>
+  </si>
+  <si>
+    <t>Cela fonctionne, mais le serveur plante lors de l'archivage. Avec l'aide de M. Ithurbide j'ai pu faire fonctionner cela. M. m'a expliqué comment faire pour que mon serveur écoute sur plusieurs ports et m'a donné plusieurs conseils pour l'ergonomie de l'application</t>
   </si>
 </sst>
 </file>
@@ -783,6 +792,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -792,13 +810,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,33 +845,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,7 +1129,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66:G66"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1136,29 +1145,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1174,11 +1183,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1193,11 +1202,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1212,11 +1221,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1231,11 +1240,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1250,11 +1259,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1269,11 +1278,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1288,11 +1297,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1307,11 +1316,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1329,11 +1338,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1348,11 +1357,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1367,11 +1376,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1384,11 +1393,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1401,11 +1410,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1418,11 +1427,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1435,11 +1444,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1452,11 +1461,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1469,11 +1478,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1486,11 +1495,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1503,9 +1512,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1518,9 +1527,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1533,9 +1542,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1548,11 +1557,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1565,9 +1574,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1580,9 +1589,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1593,9 +1602,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1606,9 +1615,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1623,11 +1632,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1642,11 +1651,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1659,11 +1668,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1674,11 +1683,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1690,9 +1699,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1706,11 +1715,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1726,11 +1735,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1741,9 +1750,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1756,11 +1765,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1775,11 +1784,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1792,11 +1801,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1811,11 +1820,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1830,11 +1839,11 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
       <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
@@ -1859,11 +1868,11 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
       <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
@@ -1886,9 +1895,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="56"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1899,9 +1908,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1912,9 +1921,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="59"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1925,11 +1934,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="E47" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="59"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1940,9 +1949,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="59"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1955,9 +1964,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -1972,11 +1981,11 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="50"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="59"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -1991,9 +2000,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -2004,11 +2013,11 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="50"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="59"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -2021,9 +2030,9 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="59"/>
     </row>
     <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -2036,9 +2045,9 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="59"/>
     </row>
     <row r="55" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
@@ -2053,11 +2062,11 @@
       <c r="D55" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="45" t="s">
+      <c r="E55" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="46"/>
-      <c r="G55" s="47"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="44"/>
     </row>
     <row r="56" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
@@ -2070,11 +2079,11 @@
       <c r="D56" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="45" t="s">
+      <c r="E56" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="46"/>
-      <c r="G56" s="47"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="44"/>
     </row>
     <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
@@ -2085,9 +2094,9 @@
       <c r="D57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="44"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="47"/>
     </row>
     <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
@@ -2100,11 +2109,11 @@
       <c r="D58" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="42" t="s">
+      <c r="E58" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="43"/>
-      <c r="G58" s="44"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="47"/>
     </row>
     <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
@@ -2134,9 +2143,9 @@
       <c r="D60" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="44"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="47"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
@@ -2149,9 +2158,9 @@
       <c r="D61" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="44"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="47"/>
     </row>
     <row r="62" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
@@ -2162,11 +2171,11 @@
       <c r="D62" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="43"/>
-      <c r="G62" s="44"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="47"/>
     </row>
     <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
@@ -2228,23 +2237,35 @@
       <c r="F66" s="40"/>
       <c r="G66" s="41"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="38">
+        <v>43154</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="39"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="41"/>
+    </row>
+    <row r="68" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
       <c r="B68" s="29"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
+      <c r="C68" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" s="40"/>
+      <c r="G68" s="41"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="28"/>
@@ -4811,7 +4832,58 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="67">
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E64:G64"/>
     <mergeCell ref="E65:G65"/>
     <mergeCell ref="E66:G66"/>
@@ -4828,55 +4900,6 @@
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E62:G62"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="137">
   <si>
     <t>Personne</t>
   </si>
@@ -417,6 +417,24 @@
   </si>
   <si>
     <t>Cela fonctionne, mais le serveur plante lors de l'archivage. Avec l'aide de M. Ithurbide j'ai pu faire fonctionner cela. M. m'a expliqué comment faire pour que mon serveur écoute sur plusieurs ports et m'a donné plusieurs conseils pour l'ergonomie de l'application</t>
+  </si>
+  <si>
+    <t>Ajout d'une categorie pour les conversations</t>
+  </si>
+  <si>
+    <t>Commencer a faire les recherches de discussions</t>
+  </si>
+  <si>
+    <t>40min</t>
+  </si>
+  <si>
+    <t>La recherche de discussion pour mes propres discussions me semble pas utile.</t>
+  </si>
+  <si>
+    <t>Possibilité de créer une discussion publique ou privée</t>
+  </si>
+  <si>
+    <t>Les recherches de discussions se feront seulement sur les discussions publiques. Une liste de environ 10 categories de discussion sera proposée. Si une categorie est selectionnée, une fenetre contenant les discussions publiques correspondantes a cette categorie apparaitra. Il y aura aussi la possibilité de rechercher une discussion en tappant le nom d'une categorie. A chaque nouveau caractère rentré une liste des categories correspondants à la chaine actuelle sera proposée.</t>
   </si>
 </sst>
 </file>
@@ -792,6 +810,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -801,14 +828,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -827,24 +863,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1145,29 +1163,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1183,11 +1201,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1202,11 +1220,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1221,11 +1239,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1240,11 +1258,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1259,11 +1277,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1278,11 +1296,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1297,11 +1315,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1316,11 +1334,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1338,11 +1356,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1357,11 +1375,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1376,11 +1394,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1393,11 +1411,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1410,11 +1428,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1427,11 +1445,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1444,11 +1462,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1461,11 +1479,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1478,11 +1496,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1495,11 +1513,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1512,9 +1530,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1527,9 +1545,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1542,9 +1560,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1557,11 +1575,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1574,9 +1592,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1589,9 +1607,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1602,9 +1620,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1615,9 +1633,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1632,11 +1650,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1651,11 +1669,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1668,11 +1686,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1683,11 +1701,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1699,9 +1717,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="44"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1715,11 +1733,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1735,11 +1753,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1750,9 +1768,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1765,11 +1783,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="44"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1784,11 +1802,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1801,11 +1819,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1820,11 +1838,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1839,11 +1857,11 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
@@ -1868,11 +1886,11 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
@@ -1895,9 +1913,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="56"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1908,9 +1926,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1921,9 +1939,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1934,11 +1952,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="E47" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1949,9 +1967,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1964,9 +1982,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -1981,11 +1999,11 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="57" t="s">
+      <c r="E50" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -2000,9 +2018,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="57"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -2013,11 +2031,11 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="58"/>
-      <c r="G52" s="59"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="50"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -2030,9 +2048,9 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="57"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="59"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50"/>
     </row>
     <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -2045,9 +2063,9 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="57"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="59"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="50"/>
     </row>
     <row r="55" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
@@ -2062,11 +2080,11 @@
       <c r="D55" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="43"/>
-      <c r="G55" s="44"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
@@ -2079,11 +2097,11 @@
       <c r="D56" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="44"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
@@ -2094,9 +2112,9 @@
       <c r="D57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="45"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="47"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="44"/>
     </row>
     <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
@@ -2109,11 +2127,11 @@
       <c r="D58" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="45" t="s">
+      <c r="E58" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="46"/>
-      <c r="G58" s="47"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="44"/>
     </row>
     <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
@@ -2143,9 +2161,9 @@
       <c r="D60" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="47"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="44"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
@@ -2158,9 +2176,9 @@
       <c r="D61" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="47"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="44"/>
     </row>
     <row r="62" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
@@ -2171,11 +2189,11 @@
       <c r="D62" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="45" t="s">
+      <c r="E62" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="47"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="44"/>
     </row>
     <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
@@ -2267,32 +2285,52 @@
       <c r="F68" s="40"/>
       <c r="G68" s="41"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="28"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="38">
+        <v>43185</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="39"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="41"/>
+    </row>
+    <row r="70" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="28"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="38">
+        <v>43186</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" s="40"/>
+      <c r="G70" s="41"/>
+    </row>
+    <row r="71" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28"/>
       <c r="B71" s="29"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
+      <c r="C71" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" s="40"/>
+      <c r="G71" s="41"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
@@ -4832,61 +4870,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
+  <mergeCells count="70">
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
@@ -4900,6 +4887,60 @@
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="141">
   <si>
     <t>Personne</t>
   </si>
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>Les recherches de discussions se feront seulement sur les discussions publiques. Une liste de environ 10 categories de discussion sera proposée. Si une categorie est selectionnée, une fenetre contenant les discussions publiques correspondantes a cette categorie apparaitra. Il y aura aussi la possibilité de rechercher une discussion en tappant le nom d'une categorie. A chaque nouveau caractère rentré une liste des categories correspondants à la chaine actuelle sera proposée.</t>
+  </si>
+  <si>
+    <t>Recherche des discussion publique terminee</t>
+  </si>
+  <si>
+    <t>135min</t>
+  </si>
+  <si>
+    <t>Correction de "bugs"</t>
+  </si>
+  <si>
+    <t>On ne peut pas ajouter un contact déjà existant ou soit meme. Lorsque je recherche une discussion publique, les discussions auxquelles je participe déjà ne s'affichent pas</t>
   </si>
 </sst>
 </file>
@@ -810,6 +822,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,13 +840,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -836,33 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1146,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71:G71"/>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1163,29 +1175,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1201,11 +1213,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1220,11 +1232,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1239,11 +1251,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1258,11 +1270,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1277,11 +1289,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1296,11 +1308,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1315,11 +1327,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1334,11 +1346,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1356,11 +1368,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1375,11 +1387,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1394,11 +1406,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1411,11 +1423,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1428,11 +1440,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1445,11 +1457,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1462,11 +1474,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1479,11 +1491,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1496,11 +1508,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1513,11 +1525,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1530,9 +1542,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1545,9 +1557,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1560,9 +1572,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1575,11 +1587,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1592,9 +1604,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1607,9 +1619,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1620,9 +1632,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1633,9 +1645,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1650,11 +1662,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1669,11 +1681,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1686,11 +1698,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1701,11 +1713,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1717,9 +1729,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1733,11 +1745,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1753,11 +1765,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1768,9 +1780,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1783,11 +1795,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1802,11 +1814,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1819,11 +1831,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1838,11 +1850,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1857,11 +1869,11 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
       <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
@@ -1886,11 +1898,11 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
       <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
@@ -1913,9 +1925,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="56"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1926,9 +1938,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1939,9 +1951,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="59"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1952,11 +1964,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="E47" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="59"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1967,9 +1979,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="59"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1982,9 +1994,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -1999,11 +2011,11 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="50"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="59"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -2018,9 +2030,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -2031,11 +2043,11 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="50"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="59"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -2048,9 +2060,9 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="59"/>
     </row>
     <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -2063,9 +2075,9 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="59"/>
     </row>
     <row r="55" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
@@ -2080,11 +2092,11 @@
       <c r="D55" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="45" t="s">
+      <c r="E55" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="46"/>
-      <c r="G55" s="47"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="44"/>
     </row>
     <row r="56" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
@@ -2097,11 +2109,11 @@
       <c r="D56" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="45" t="s">
+      <c r="E56" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="46"/>
-      <c r="G56" s="47"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="44"/>
     </row>
     <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
@@ -2112,9 +2124,9 @@
       <c r="D57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="44"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="47"/>
     </row>
     <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
@@ -2127,11 +2139,11 @@
       <c r="D58" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="42" t="s">
+      <c r="E58" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="43"/>
-      <c r="G58" s="44"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="47"/>
     </row>
     <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
@@ -2161,9 +2173,9 @@
       <c r="D60" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="44"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="47"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
@@ -2176,9 +2188,9 @@
       <c r="D61" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="44"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="47"/>
     </row>
     <row r="62" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
@@ -2189,11 +2201,11 @@
       <c r="D62" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="43"/>
-      <c r="G62" s="44"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="47"/>
     </row>
     <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
@@ -2332,23 +2344,35 @@
       <c r="F71" s="40"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="38">
+        <v>43188</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="45"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="47"/>
+    </row>
+    <row r="73" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
       <c r="B73" s="29"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
+      <c r="C73" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" s="40"/>
+      <c r="G73" s="41"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
@@ -4870,7 +4894,63 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="72">
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E69:G69"/>
     <mergeCell ref="E70:G70"/>
     <mergeCell ref="E71:G71"/>
@@ -4887,60 +4967,6 @@
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\Planification_JournalDeTravail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DA01E4-7407-4EB6-902E-FCEADC099257}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="144">
   <si>
     <t>Personne</t>
   </si>
@@ -447,12 +448,21 @@
   </si>
   <si>
     <t>On ne peut pas ajouter un contact déjà existant ou soit meme. Lorsque je recherche une discussion publique, les discussions auxquelles je participe déjà ne s'affichent pas</t>
+  </si>
+  <si>
+    <t>35min</t>
+  </si>
+  <si>
+    <t>Refactoring des 10 premiers "messsages"</t>
+  </si>
+  <si>
+    <t>Ajout de commentaires / Amelioration des fonctions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -814,6 +824,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,14 +850,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -857,24 +885,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,11 +1165,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="E74" sqref="E74:G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1175,29 +1185,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1213,11 +1223,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1232,11 +1242,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1251,11 +1261,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1270,11 +1280,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1289,11 +1299,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1308,11 +1318,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1327,11 +1337,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1346,11 +1356,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1368,11 +1378,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1387,11 +1397,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1406,11 +1416,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1423,11 +1433,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1440,11 +1450,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1457,11 +1467,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1474,11 +1484,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1491,11 +1501,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1508,11 +1518,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1525,11 +1535,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1542,9 +1552,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1557,9 +1567,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1572,9 +1582,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1587,11 +1597,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1604,9 +1614,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1619,9 +1629,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1632,9 +1642,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1645,9 +1655,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1662,11 +1672,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1681,11 +1691,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1698,11 +1708,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1713,11 +1723,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1729,9 +1739,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="44"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1745,11 +1755,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1765,11 +1775,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1780,9 +1790,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1795,11 +1805,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="44"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1814,11 +1824,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1831,11 +1841,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1850,11 +1860,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1869,11 +1879,11 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
@@ -1898,11 +1908,11 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
@@ -1925,9 +1935,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="56"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1938,9 +1948,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1951,9 +1961,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1964,11 +1974,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="E47" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1979,9 +1989,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1994,9 +2004,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -2011,11 +2021,11 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="57" t="s">
+      <c r="E50" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -2030,9 +2040,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="57"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -2043,11 +2053,11 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="58"/>
-      <c r="G52" s="59"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="50"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -2060,9 +2070,9 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="57"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="59"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50"/>
     </row>
     <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -2075,9 +2085,9 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="57"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="59"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="50"/>
     </row>
     <row r="55" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
@@ -2092,11 +2102,11 @@
       <c r="D55" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="43"/>
-      <c r="G55" s="44"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
@@ -2109,11 +2119,11 @@
       <c r="D56" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="44"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
@@ -2124,9 +2134,9 @@
       <c r="D57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="45"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="47"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
     </row>
     <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
@@ -2139,11 +2149,11 @@
       <c r="D58" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="45" t="s">
+      <c r="E58" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="46"/>
-      <c r="G58" s="47"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="41"/>
     </row>
     <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
@@ -2156,11 +2166,11 @@
       <c r="D59" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="41"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="44"/>
     </row>
     <row r="60" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
@@ -2173,9 +2183,9 @@
       <c r="D60" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="47"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="41"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
@@ -2188,9 +2198,9 @@
       <c r="D61" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="47"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="41"/>
     </row>
     <row r="62" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
@@ -2201,11 +2211,11 @@
       <c r="D62" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="45" t="s">
+      <c r="E62" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="47"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="41"/>
     </row>
     <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
@@ -2218,11 +2228,11 @@
       <c r="D63" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="F63" s="40"/>
-      <c r="G63" s="41"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="44"/>
     </row>
     <row r="64" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
@@ -2235,9 +2245,9 @@
       <c r="D64" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="41"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="44"/>
     </row>
     <row r="65" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
@@ -2248,9 +2258,9 @@
       <c r="D65" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="41"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="44"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
@@ -2261,11 +2271,11 @@
       <c r="D66" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E66" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F66" s="40"/>
-      <c r="G66" s="41"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="44"/>
     </row>
     <row r="67" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
@@ -2278,9 +2288,9 @@
       <c r="D67" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="39"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="41"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="44"/>
     </row>
     <row r="68" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
@@ -2291,11 +2301,11 @@
       <c r="D68" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="E68" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="F68" s="40"/>
-      <c r="G68" s="41"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="44"/>
     </row>
     <row r="69" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="28"/>
@@ -2308,9 +2318,9 @@
       <c r="D69" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="39"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="41"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="44"/>
     </row>
     <row r="70" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="28"/>
@@ -2323,11 +2333,11 @@
       <c r="D70" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E70" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="F70" s="40"/>
-      <c r="G70" s="41"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="44"/>
     </row>
     <row r="71" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28"/>
@@ -2338,11 +2348,11 @@
       <c r="D71" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="E71" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="F71" s="40"/>
-      <c r="G71" s="41"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="44"/>
     </row>
     <row r="72" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
@@ -2355,9 +2365,9 @@
       <c r="D72" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="45"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="47"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="41"/>
     </row>
     <row r="73" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
@@ -2368,20 +2378,28 @@
       <c r="D73" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="E73" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="41"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F73" s="43"/>
+      <c r="G73" s="44"/>
+    </row>
+    <row r="74" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
+      <c r="B74" s="38">
+        <v>43203</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="43"/>
+      <c r="G74" s="44"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="28"/>
@@ -4894,66 +4912,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
+  <mergeCells count="73">
+    <mergeCell ref="E74:G74"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
@@ -4967,6 +4927,65 @@
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DA01E4-7407-4EB6-902E-FCEADC099257}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBA6E3B-F964-4402-A9CE-4235348A649B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="148">
   <si>
     <t>Personne</t>
   </si>
@@ -457,6 +457,18 @@
   </si>
   <si>
     <t>Ajout de commentaires / Amelioration des fonctions</t>
+  </si>
+  <si>
+    <t>Refactoring des messages 11 - 38</t>
+  </si>
+  <si>
+    <t>420min</t>
+  </si>
+  <si>
+    <t>Refactoring du code serveur/client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le code du serveur est nettoyé et commenté. Reste le code du client a commenter correctement. </t>
   </si>
 </sst>
 </file>
@@ -824,6 +836,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,22 +862,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,33 +897,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,7 +1181,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74:G74"/>
+      <selection activeCell="E76" sqref="E76:G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1185,29 +1197,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1223,11 +1235,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1242,11 +1254,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1261,11 +1273,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1280,11 +1292,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1299,11 +1311,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1318,11 +1330,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1337,11 +1349,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1356,11 +1368,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1378,11 +1390,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1397,11 +1409,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1416,11 +1428,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1433,11 +1445,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1450,11 +1462,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1467,11 +1479,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1484,11 +1496,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1501,11 +1513,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1518,11 +1530,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1535,11 +1547,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1552,9 +1564,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1567,9 +1579,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1582,9 +1594,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1597,11 +1609,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1614,9 +1626,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1629,9 +1641,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1642,9 +1654,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1655,9 +1667,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1672,11 +1684,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1691,11 +1703,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1708,11 +1720,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1723,11 +1735,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1739,9 +1751,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1755,11 +1767,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1775,11 +1787,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1790,9 +1802,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1805,11 +1817,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1824,11 +1836,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1841,11 +1853,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1860,11 +1872,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1879,11 +1891,11 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
       <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
@@ -1908,11 +1920,11 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
       <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
@@ -1935,9 +1947,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="56"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1948,9 +1960,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1961,9 +1973,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="59"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1974,11 +1986,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="E47" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="59"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1989,9 +2001,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="59"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -2004,9 +2016,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -2021,11 +2033,11 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="50"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="59"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -2040,9 +2052,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -2053,11 +2065,11 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="50"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="59"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -2070,9 +2082,9 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="59"/>
     </row>
     <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -2085,9 +2097,9 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="59"/>
     </row>
     <row r="55" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
@@ -2102,11 +2114,11 @@
       <c r="D55" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="45" t="s">
+      <c r="E55" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="46"/>
-      <c r="G55" s="47"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="44"/>
     </row>
     <row r="56" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
@@ -2119,11 +2131,11 @@
       <c r="D56" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="45" t="s">
+      <c r="E56" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="46"/>
-      <c r="G56" s="47"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="44"/>
     </row>
     <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
@@ -2134,9 +2146,9 @@
       <c r="D57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="41"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="47"/>
     </row>
     <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
@@ -2149,11 +2161,11 @@
       <c r="D58" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="E58" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="40"/>
-      <c r="G58" s="41"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="47"/>
     </row>
     <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
@@ -2166,11 +2178,11 @@
       <c r="D59" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="42" t="s">
+      <c r="E59" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="43"/>
-      <c r="G59" s="44"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="41"/>
     </row>
     <row r="60" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
@@ -2183,9 +2195,9 @@
       <c r="D60" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="41"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="47"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
@@ -2198,9 +2210,9 @@
       <c r="D61" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="41"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="47"/>
     </row>
     <row r="62" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
@@ -2211,11 +2223,11 @@
       <c r="D62" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E62" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="40"/>
-      <c r="G62" s="41"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="47"/>
     </row>
     <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
@@ -2228,11 +2240,11 @@
       <c r="D63" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="42" t="s">
+      <c r="E63" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="F63" s="43"/>
-      <c r="G63" s="44"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
     </row>
     <row r="64" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
@@ -2245,9 +2257,9 @@
       <c r="D64" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="42"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="44"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="41"/>
     </row>
     <row r="65" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
@@ -2258,9 +2270,9 @@
       <c r="D65" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="42"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="44"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="41"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
@@ -2271,11 +2283,11 @@
       <c r="D66" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="42" t="s">
+      <c r="E66" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="F66" s="43"/>
-      <c r="G66" s="44"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="41"/>
     </row>
     <row r="67" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
@@ -2288,9 +2300,9 @@
       <c r="D67" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="42"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="44"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="41"/>
     </row>
     <row r="68" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
@@ -2301,11 +2313,11 @@
       <c r="D68" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="42" t="s">
+      <c r="E68" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="F68" s="43"/>
-      <c r="G68" s="44"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="41"/>
     </row>
     <row r="69" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="28"/>
@@ -2318,9 +2330,9 @@
       <c r="D69" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="42"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="44"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="41"/>
     </row>
     <row r="70" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="28"/>
@@ -2333,11 +2345,11 @@
       <c r="D70" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="E70" s="42" t="s">
+      <c r="E70" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F70" s="43"/>
-      <c r="G70" s="44"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="41"/>
     </row>
     <row r="71" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28"/>
@@ -2348,11 +2360,11 @@
       <c r="D71" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="42" t="s">
+      <c r="E71" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="F71" s="43"/>
-      <c r="G71" s="44"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="41"/>
     </row>
     <row r="72" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
@@ -2365,9 +2377,9 @@
       <c r="D72" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="39"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="41"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="47"/>
     </row>
     <row r="73" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
@@ -2378,11 +2390,11 @@
       <c r="D73" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="E73" s="42" t="s">
+      <c r="E73" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="F73" s="43"/>
-      <c r="G73" s="44"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="41"/>
     </row>
     <row r="74" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
@@ -2395,29 +2407,43 @@
       <c r="D74" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E74" s="42" t="s">
+      <c r="E74" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="F74" s="43"/>
-      <c r="G74" s="44"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F74" s="40"/>
+      <c r="G74" s="41"/>
+    </row>
+    <row r="75" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="28"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="38">
+        <v>43204</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" s="39"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="41"/>
+    </row>
+    <row r="76" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="28"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
+      <c r="B76" s="38">
+        <v>43146</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F76" s="40"/>
+      <c r="G76" s="41"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="28"/>
@@ -4912,7 +4938,66 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="75">
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E74:G74"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -4927,65 +5012,8 @@
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBA6E3B-F964-4402-A9CE-4235348A649B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BE094C-F5D3-401B-9A79-C65B29E72A14}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
   <si>
     <t>Personne</t>
   </si>
@@ -469,6 +469,18 @@
   </si>
   <si>
     <t xml:space="preserve">Le code du serveur est nettoyé et commenté. Reste le code du client a commenter correctement. </t>
+  </si>
+  <si>
+    <t>Debut écriture des tests</t>
+  </si>
+  <si>
+    <t>150min</t>
+  </si>
+  <si>
+    <t>Fin ecriture des tests + commentaires ChatApplication</t>
+  </si>
+  <si>
+    <t>Commentaires fait jusqu' a frmEnregistrement</t>
   </si>
 </sst>
 </file>
@@ -844,6 +856,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -853,14 +874,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -879,24 +909,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1180,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76:G76"/>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78:G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1197,29 +1209,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1235,11 +1247,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1254,11 +1266,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1273,11 +1285,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1292,11 +1304,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1311,11 +1323,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1330,11 +1342,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1349,11 +1361,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1368,11 +1380,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1390,11 +1402,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1409,11 +1421,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1428,11 +1440,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1445,11 +1457,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1462,11 +1474,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1479,11 +1491,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1496,11 +1508,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1513,11 +1525,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1530,11 +1542,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1547,11 +1559,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1564,9 +1576,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1579,9 +1591,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1594,9 +1606,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1609,11 +1621,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1626,9 +1638,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1641,9 +1653,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1654,9 +1666,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1667,9 +1679,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1684,11 +1696,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1703,11 +1715,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1720,11 +1732,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1735,11 +1747,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1751,9 +1763,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="44"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1767,11 +1779,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1787,11 +1799,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1802,9 +1814,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1817,11 +1829,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="44"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1836,11 +1848,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1853,11 +1865,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1872,11 +1884,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1891,11 +1903,11 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
@@ -1920,11 +1932,11 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
@@ -1947,9 +1959,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="56"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1960,9 +1972,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1973,9 +1985,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1986,11 +1998,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="E47" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -2001,9 +2013,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -2016,9 +2028,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -2033,11 +2045,11 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="57" t="s">
+      <c r="E50" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -2052,9 +2064,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="57"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -2065,11 +2077,11 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="58"/>
-      <c r="G52" s="59"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="50"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -2082,9 +2094,9 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="57"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="59"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50"/>
     </row>
     <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -2097,9 +2109,9 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="57"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="59"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="50"/>
     </row>
     <row r="55" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
@@ -2114,11 +2126,11 @@
       <c r="D55" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="43"/>
-      <c r="G55" s="44"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
@@ -2131,11 +2143,11 @@
       <c r="D56" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="44"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
@@ -2146,9 +2158,9 @@
       <c r="D57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="45"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="47"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="44"/>
     </row>
     <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
@@ -2161,11 +2173,11 @@
       <c r="D58" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="45" t="s">
+      <c r="E58" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="46"/>
-      <c r="G58" s="47"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="44"/>
     </row>
     <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
@@ -2195,9 +2207,9 @@
       <c r="D60" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="47"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="44"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
@@ -2210,9 +2222,9 @@
       <c r="D61" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="47"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="44"/>
     </row>
     <row r="62" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
@@ -2223,11 +2235,11 @@
       <c r="D62" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="45" t="s">
+      <c r="E62" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="47"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="44"/>
     </row>
     <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
@@ -2377,9 +2389,9 @@
       <c r="D72" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="45"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="47"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="44"/>
     </row>
     <row r="73" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
@@ -2447,21 +2459,35 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="28"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="38">
+        <v>43147</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="39"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="41"/>
+    </row>
+    <row r="78" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="28"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
+      <c r="B78" s="38">
+        <v>43147</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" s="40"/>
+      <c r="G78" s="41"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="28"/>
@@ -4938,67 +4964,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E74:G74"/>
+  <mergeCells count="77">
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
@@ -5014,6 +4982,66 @@
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E74:G74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BE094C-F5D3-401B-9A79-C65B29E72A14}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="155">
   <si>
     <t>Personne</t>
   </si>
@@ -481,12 +480,21 @@
   </si>
   <si>
     <t>Commentaires fait jusqu' a frmEnregistrement</t>
+  </si>
+  <si>
+    <t>Fin commentaires ChatApplication</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Diagramme de classe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -856,6 +864,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,13 +882,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,33 +917,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1189,11 +1197,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78:G78"/>
+    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1209,29 +1217,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,11 +1255,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1266,11 +1274,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1285,11 +1293,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1304,11 +1312,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1323,11 +1331,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1342,11 +1350,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1361,11 +1369,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1380,11 +1388,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1402,11 +1410,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1421,11 +1429,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1440,11 +1448,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1457,11 +1465,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1474,11 +1482,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1491,11 +1499,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1508,11 +1516,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1525,11 +1533,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1542,11 +1550,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1559,11 +1567,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1576,9 +1584,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1591,9 +1599,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1606,9 +1614,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1621,11 +1629,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1638,9 +1646,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1653,9 +1661,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1666,9 +1674,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1679,9 +1687,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1696,11 +1704,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1715,11 +1723,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1732,11 +1740,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1747,11 +1755,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1763,9 +1771,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1779,11 +1787,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1799,11 +1807,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1814,9 +1822,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1829,11 +1837,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1848,11 +1856,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1865,11 +1873,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1884,11 +1892,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1903,11 +1911,11 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
       <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
@@ -1932,11 +1940,11 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
       <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
@@ -1959,9 +1967,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="56"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1972,9 +1980,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1985,9 +1993,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="59"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1998,11 +2006,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="E47" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="59"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -2013,9 +2021,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="59"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -2028,9 +2036,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -2045,11 +2053,11 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="50"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="59"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -2064,9 +2072,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -2077,11 +2085,11 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="50"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="59"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -2094,9 +2102,9 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="59"/>
     </row>
     <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -2109,9 +2117,9 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="59"/>
     </row>
     <row r="55" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
@@ -2126,11 +2134,11 @@
       <c r="D55" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="45" t="s">
+      <c r="E55" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="46"/>
-      <c r="G55" s="47"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="44"/>
     </row>
     <row r="56" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
@@ -2143,11 +2151,11 @@
       <c r="D56" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="45" t="s">
+      <c r="E56" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="46"/>
-      <c r="G56" s="47"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="44"/>
     </row>
     <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
@@ -2158,9 +2166,9 @@
       <c r="D57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="44"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="47"/>
     </row>
     <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
@@ -2173,11 +2181,11 @@
       <c r="D58" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="42" t="s">
+      <c r="E58" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="43"/>
-      <c r="G58" s="44"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="47"/>
     </row>
     <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
@@ -2207,9 +2215,9 @@
       <c r="D60" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="44"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="47"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
@@ -2222,9 +2230,9 @@
       <c r="D61" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="44"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="47"/>
     </row>
     <row r="62" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
@@ -2235,11 +2243,11 @@
       <c r="D62" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="43"/>
-      <c r="G62" s="44"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="47"/>
     </row>
     <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
@@ -2389,9 +2397,9 @@
       <c r="D72" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="42"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="44"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="47"/>
     </row>
     <row r="73" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
@@ -2489,23 +2497,37 @@
       <c r="F78" s="40"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="28"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
+      <c r="B79" s="38">
+        <v>43148</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="39"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="41"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
+      <c r="B80" s="38">
+        <v>43148</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" s="46"/>
+      <c r="G80" s="47"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="28"/>
@@ -4964,7 +4986,70 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="79">
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E77:G77"/>
     <mergeCell ref="E78:G78"/>
     <mergeCell ref="E12:G12"/>
@@ -4981,67 +5066,6 @@
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E74:G74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\Planification_JournalDeTravail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399EC1F6-61DD-499E-8A8A-99A3FCDC7A63}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="157">
   <si>
     <t>Personne</t>
   </si>
@@ -489,12 +490,18 @@
   </si>
   <si>
     <t>Diagramme de classe</t>
+  </si>
+  <si>
+    <t>Début réalisation des tests</t>
+  </si>
+  <si>
+    <t>Certains bugs trouvés sont facilement corrigible, d'autres dépendent de la facon dont j'ai choisi de transmettre les informations entre le client et le serveur donc sont plus difficilement corrigibles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -864,6 +871,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -873,14 +889,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -899,24 +924,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,11 +1204,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1217,29 +1224,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1255,11 +1262,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1274,11 +1281,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1293,11 +1300,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1312,11 +1319,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1331,11 +1338,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1350,11 +1357,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1369,11 +1376,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1388,11 +1395,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1410,11 +1417,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1429,11 +1436,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1448,11 +1455,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1465,11 +1472,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1482,11 +1489,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1499,11 +1506,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1516,11 +1523,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1533,11 +1540,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1550,11 +1557,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1567,11 +1574,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1584,9 +1591,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1599,9 +1606,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1614,9 +1621,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1629,11 +1636,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1646,9 +1653,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1661,9 +1668,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1674,9 +1681,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1687,9 +1694,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1704,11 +1711,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1723,11 +1730,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1740,11 +1747,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1755,11 +1762,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1771,9 +1778,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="44"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1787,11 +1794,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1807,11 +1814,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1822,9 +1829,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1837,11 +1844,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="44"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1856,11 +1863,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1873,11 +1880,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1892,11 +1899,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1911,11 +1918,11 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="22" t="s">
         <v>86</v>
       </c>
@@ -1940,11 +1947,11 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="21" t="s">
         <v>87</v>
       </c>
@@ -1967,9 +1974,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="56"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1980,9 +1987,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1993,9 +2000,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -2006,11 +2013,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="E47" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -2021,9 +2028,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -2036,9 +2043,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -2053,11 +2060,11 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="57" t="s">
+      <c r="E50" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -2072,9 +2079,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="57"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -2085,11 +2092,11 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="58"/>
-      <c r="G52" s="59"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="50"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -2102,9 +2109,9 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="57"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="59"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50"/>
     </row>
     <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -2117,9 +2124,9 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="57"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="59"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="50"/>
     </row>
     <row r="55" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
@@ -2134,11 +2141,11 @@
       <c r="D55" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="43"/>
-      <c r="G55" s="44"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
@@ -2151,11 +2158,11 @@
       <c r="D56" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="44"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
@@ -2166,9 +2173,9 @@
       <c r="D57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="45"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="47"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="44"/>
     </row>
     <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
@@ -2181,11 +2188,11 @@
       <c r="D58" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="45" t="s">
+      <c r="E58" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="46"/>
-      <c r="G58" s="47"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="44"/>
     </row>
     <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
@@ -2215,9 +2222,9 @@
       <c r="D60" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="47"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="44"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
@@ -2230,9 +2237,9 @@
       <c r="D61" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="47"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="44"/>
     </row>
     <row r="62" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
@@ -2243,11 +2250,11 @@
       <c r="D62" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="45" t="s">
+      <c r="E62" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="47"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="44"/>
     </row>
     <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
@@ -2397,9 +2404,9 @@
       <c r="D72" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="45"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="47"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="44"/>
     </row>
     <row r="73" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
@@ -2523,20 +2530,28 @@
       <c r="D80" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="45" t="s">
+      <c r="E80" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="F80" s="46"/>
-      <c r="G80" s="47"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F80" s="43"/>
+      <c r="G80" s="44"/>
+    </row>
+    <row r="81" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
+      <c r="B81" s="38">
+        <v>43148</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" s="40"/>
+      <c r="G81" s="41"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
@@ -4986,7 +5001,71 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="80">
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
     <mergeCell ref="E79:G79"/>
     <mergeCell ref="E80:G80"/>
     <mergeCell ref="E75:G75"/>
@@ -5003,69 +5082,6 @@
     <mergeCell ref="E67:G67"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E31:G31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\Planification_JournalDeTravail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\Planification_JournalDeTravail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399EC1F6-61DD-499E-8A8A-99A3FCDC7A63}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="161">
   <si>
     <t>Personne</t>
   </si>
@@ -496,12 +495,24 @@
   </si>
   <si>
     <t>Certains bugs trouvés sont facilement corrigible, d'autres dépendent de la facon dont j'ai choisi de transmettre les informations entre le client et le serveur donc sont plus difficilement corrigibles</t>
+  </si>
+  <si>
+    <t>Fin réalisation des tests</t>
+  </si>
+  <si>
+    <t>Correction de certains bugs</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>Il reste un bug que je pourrai pe corriger, mais je prefere m'attaquer a la doc pour etre sur d'avoir le temps de la finir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -752,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -862,6 +873,66 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -869,60 +940,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1204,11 +1221,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1224,29 +1241,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
       <c r="XFD1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8 16384:16384" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8 16384:16384" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1262,11 +1279,11 @@
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1281,11 +1298,11 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1300,11 +1317,11 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1319,11 +1336,11 @@
       <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1338,11 +1355,11 @@
       <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="1:8 16384:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1357,11 +1374,11 @@
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1376,11 +1393,11 @@
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:8 16384:16384" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1395,11 +1412,11 @@
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
       <c r="H11" t="s">
         <v>9</v>
       </c>
@@ -1417,11 +1434,11 @@
       <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
     </row>
     <row r="13" spans="1:8 16384:16384" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1436,11 +1453,11 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
     </row>
     <row r="14" spans="1:8 16384:16384" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1455,11 +1472,11 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
     </row>
     <row r="15" spans="1:8 16384:16384" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1472,11 +1489,11 @@
       <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
     </row>
     <row r="16" spans="1:8 16384:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1489,11 +1506,11 @@
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1506,11 +1523,11 @@
       <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1523,11 +1540,11 @@
       <c r="D18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1540,11 +1557,11 @@
       <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1557,11 +1574,11 @@
       <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1574,11 +1591,11 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1591,9 +1608,9 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1606,9 +1623,9 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1621,9 +1638,9 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1636,11 +1653,11 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1653,9 +1670,9 @@
       <c r="D26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1668,9 +1685,9 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1681,9 +1698,9 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1694,9 +1711,9 @@
       <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1711,11 +1728,11 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1730,11 +1747,11 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1747,11 +1764,11 @@
       <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1762,11 +1779,11 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -1778,9 +1795,9 @@
       <c r="D34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1794,11 +1811,11 @@
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -1814,11 +1831,11 @@
       <c r="D36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1829,9 +1846,9 @@
         <v>72</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1844,11 +1861,11 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1863,11 +1880,11 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1880,11 +1897,11 @@
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
     </row>
     <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1899,11 +1916,11 @@
       <c r="D41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="43"/>
     </row>
     <row r="42" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -1918,12 +1935,12 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="22" t="s">
+      <c r="F42" s="42"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="39" t="s">
         <v>86</v>
       </c>
       <c r="I42" s="22"/>
@@ -1934,7 +1951,7 @@
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>58</v>
       </c>
@@ -1947,12 +1964,12 @@
       <c r="D43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="21" t="s">
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="40" t="s">
         <v>87</v>
       </c>
       <c r="I43" s="21"/>
@@ -1974,9 +1991,9 @@
       <c r="D44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1987,9 +2004,9 @@
       <c r="D45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="58"/>
     </row>
     <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -2000,9 +2017,9 @@
       <c r="D46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="58"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -2013,11 +2030,11 @@
       <c r="D47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="E47" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="58"/>
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -2028,9 +2045,9 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="58"/>
     </row>
     <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -2043,9 +2060,9 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="58"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -2060,11 +2077,11 @@
       <c r="D50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="50"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="58"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -2079,9 +2096,9 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="58"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -2092,11 +2109,11 @@
       <c r="D52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="50"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="58"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -2109,9 +2126,9 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="58"/>
     </row>
     <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -2124,9 +2141,9 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="58"/>
     </row>
     <row r="55" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
@@ -2141,11 +2158,11 @@
       <c r="D55" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="45" t="s">
+      <c r="E55" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="46"/>
-      <c r="G55" s="47"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="43"/>
     </row>
     <row r="56" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
@@ -2158,11 +2175,11 @@
       <c r="D56" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="45" t="s">
+      <c r="E56" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="46"/>
-      <c r="G56" s="47"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="43"/>
     </row>
     <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
@@ -2173,9 +2190,9 @@
       <c r="D57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="46"/>
     </row>
     <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
@@ -2188,11 +2205,11 @@
       <c r="D58" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="42" t="s">
+      <c r="E58" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="43"/>
-      <c r="G58" s="44"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="46"/>
     </row>
     <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
@@ -2205,11 +2222,11 @@
       <c r="D59" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="41"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="61"/>
     </row>
     <row r="60" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
@@ -2222,9 +2239,9 @@
       <c r="D60" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="46"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
@@ -2237,9 +2254,9 @@
       <c r="D61" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="46"/>
     </row>
     <row r="62" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
@@ -2250,11 +2267,11 @@
       <c r="D62" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="43"/>
-      <c r="G62" s="44"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="46"/>
     </row>
     <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
@@ -2267,11 +2284,11 @@
       <c r="D63" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F63" s="40"/>
-      <c r="G63" s="41"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="61"/>
     </row>
     <row r="64" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
@@ -2284,9 +2301,9 @@
       <c r="D64" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="41"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="61"/>
     </row>
     <row r="65" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
@@ -2297,9 +2314,9 @@
       <c r="D65" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="41"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="61"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
@@ -2310,11 +2327,11 @@
       <c r="D66" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E66" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="F66" s="40"/>
-      <c r="G66" s="41"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="61"/>
     </row>
     <row r="67" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
@@ -2327,9 +2344,9 @@
       <c r="D67" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="39"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="41"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="61"/>
     </row>
     <row r="68" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
@@ -2340,11 +2357,11 @@
       <c r="D68" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="E68" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F68" s="40"/>
-      <c r="G68" s="41"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="61"/>
     </row>
     <row r="69" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="28"/>
@@ -2357,9 +2374,9 @@
       <c r="D69" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="39"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="41"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="61"/>
     </row>
     <row r="70" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="28"/>
@@ -2372,11 +2389,11 @@
       <c r="D70" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E70" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="F70" s="40"/>
-      <c r="G70" s="41"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="61"/>
     </row>
     <row r="71" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28"/>
@@ -2387,11 +2404,11 @@
       <c r="D71" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="E71" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="F71" s="40"/>
-      <c r="G71" s="41"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="61"/>
     </row>
     <row r="72" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
@@ -2404,9 +2421,9 @@
       <c r="D72" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="42"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="46"/>
     </row>
     <row r="73" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
@@ -2417,11 +2434,11 @@
       <c r="D73" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="E73" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="41"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="61"/>
     </row>
     <row r="74" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
@@ -2434,11 +2451,11 @@
       <c r="D74" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E74" s="39" t="s">
+      <c r="E74" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="F74" s="40"/>
-      <c r="G74" s="41"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="61"/>
     </row>
     <row r="75" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="28"/>
@@ -2451,14 +2468,14 @@
       <c r="D75" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E75" s="39"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="41"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="61"/>
     </row>
     <row r="76" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="28"/>
       <c r="B76" s="38">
-        <v>43146</v>
+        <v>43205</v>
       </c>
       <c r="C76" s="30" t="s">
         <v>146</v>
@@ -2466,16 +2483,16 @@
       <c r="D76" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E76" s="39" t="s">
+      <c r="E76" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="F76" s="40"/>
-      <c r="G76" s="41"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="61"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="28"/>
       <c r="B77" s="38">
-        <v>43147</v>
+        <v>43206</v>
       </c>
       <c r="C77" s="30" t="s">
         <v>148</v>
@@ -2483,14 +2500,14 @@
       <c r="D77" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E77" s="39"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="41"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="61"/>
     </row>
     <row r="78" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="28"/>
       <c r="B78" s="38">
-        <v>43147</v>
+        <v>43206</v>
       </c>
       <c r="C78" s="30" t="s">
         <v>150</v>
@@ -2498,16 +2515,16 @@
       <c r="D78" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="E78" s="39" t="s">
+      <c r="E78" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="F78" s="40"/>
-      <c r="G78" s="41"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="61"/>
     </row>
     <row r="79" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="28"/>
       <c r="B79" s="38">
-        <v>43148</v>
+        <v>43207</v>
       </c>
       <c r="C79" s="30" t="s">
         <v>152</v>
@@ -2515,14 +2532,14 @@
       <c r="D79" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="39"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="41"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="61"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
       <c r="B80" s="38">
-        <v>43148</v>
+        <v>43207</v>
       </c>
       <c r="C80" s="30" t="s">
         <v>153</v>
@@ -2530,16 +2547,16 @@
       <c r="D80" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="42" t="s">
+      <c r="E80" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="F80" s="43"/>
-      <c r="G80" s="44"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="46"/>
     </row>
     <row r="81" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28"/>
       <c r="B81" s="38">
-        <v>43148</v>
+        <v>43207</v>
       </c>
       <c r="C81" s="30" t="s">
         <v>155</v>
@@ -2547,35 +2564,55 @@
       <c r="D81" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E81" s="39" t="s">
+      <c r="E81" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="F81" s="40"/>
-      <c r="G81" s="41"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="61"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="38">
+        <v>43209</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" s="59"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="61"/>
+    </row>
+    <row r="83" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="28"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
+      <c r="B83" s="38">
+        <v>43209</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" s="60"/>
+      <c r="G83" s="61"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="28"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="31"/>
+      <c r="B84" s="38">
+        <v>43209</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>109</v>
+      </c>
       <c r="E84" s="32"/>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
@@ -5001,10 +5038,73 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="82">
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
     <mergeCell ref="E81:G81"/>
     <mergeCell ref="E77:G77"/>
     <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
@@ -5018,70 +5118,9 @@
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E74:G74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
+++ b/Documentation/Planification_JournalDeTravail/Journal de travail.xlsx
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
